--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>同時回復</t>
+  </si>
+  <si>
+    <t>アンデッド</t>
   </si>
   <si>
     <t>炎適正</t>
@@ -173,9 +176,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -200,16 +203,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,91 +227,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -324,11 +243,95 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -345,187 +348,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,36 +539,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -579,21 +552,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -617,11 +575,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,6 +630,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,145 +647,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,10 +1118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1629,10 +1632,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="B37">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1643,10 +1646,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="B38">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1657,10 +1660,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="B39">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1671,10 +1674,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B40">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1685,15 +1688,57 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
+        <v>202</v>
+      </c>
+      <c r="B41">
+        <v>202</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>203</v>
+      </c>
+      <c r="B42">
+        <v>203</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>204</v>
+      </c>
+      <c r="B43">
+        <v>204</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
         <v>205</v>
       </c>
-      <c r="B41">
+      <c r="B44">
         <v>205</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
         <v>0</v>
       </c>
     </row>
@@ -1706,10 +1751,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2137,7 +2182,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -2148,7 +2193,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
@@ -2159,7 +2204,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
@@ -2170,7 +2215,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
@@ -2181,12 +2226,23 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
       </c>
       <c r="C43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>205</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -29,6 +29,81 @@
     <t>RemovalTiming</t>
   </si>
   <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Butterfly</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Stun</t>
+  </si>
+  <si>
+    <t>Burning</t>
+  </si>
+  <si>
+    <t>Blind</t>
+  </si>
+  <si>
+    <t>Freeze</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Spyglass</t>
+  </si>
+  <si>
+    <t>HeartPlus.</t>
+  </si>
+  <si>
+    <t>MoebiusTrefoil.</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>ArmorUpgrade.</t>
+  </si>
+  <si>
+    <t>Wingfoot.</t>
+  </si>
+  <si>
+    <t>ArrowScope.</t>
+  </si>
+  <si>
+    <t>Dodging</t>
+  </si>
+  <si>
+    <t>VitruvianMan</t>
+  </si>
+  <si>
+    <t>ShadowFollower</t>
+  </si>
+  <si>
+    <t>Imprisoned</t>
+  </si>
+  <si>
+    <t>ShieldReflect</t>
+  </si>
+  <si>
+    <t>MagicShield.</t>
+  </si>
+  <si>
+    <t>Healing</t>
+  </si>
+  <si>
+    <t>DrippingStar</t>
+  </si>
+  <si>
+    <t>HalfHeart</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
@@ -153,6 +228,9 @@
   </si>
   <si>
     <t>アンデッド</t>
+  </si>
+  <si>
+    <t>必中</t>
   </si>
   <si>
     <t>炎適正</t>
@@ -175,10 +253,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -189,6 +267,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -197,40 +276,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,7 +305,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,26 +341,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,21 +372,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -326,12 +389,27 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -348,187 +426,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,34 +620,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -586,6 +642,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,20 +696,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,145 +725,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1118,13 +1196,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1140,371 +1218,475 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="str">
+        <f>TextData!B2</f>
+        <v>戦闘不能</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>11</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="str">
+        <f>TextData!B3</f>
+        <v>神化</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>21</v>
       </c>
       <c r="B4">
         <v>21</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="str">
+        <f>TextData!B4</f>
+        <v>鈍足</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>22</v>
       </c>
       <c r="B5">
         <v>22</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" ht="12" customHeight="1" spans="1:4">
+      <c r="E5" t="str">
+        <f>TextData!B5</f>
+        <v>スタン</v>
+      </c>
+    </row>
+    <row r="6" ht="12" customHeight="1" spans="1:5">
       <c r="A6">
         <v>23</v>
       </c>
       <c r="B6">
         <v>23</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="str">
+        <f>TextData!B6</f>
+        <v>火傷</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>24</v>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="str">
+        <f>TextData!B7</f>
+        <v>暗闇</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>25</v>
       </c>
       <c r="B8">
         <v>25</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>4</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="str">
+        <f>TextData!B8</f>
+        <v>即死</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>26</v>
       </c>
       <c r="B9">
         <v>26</v>
       </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="str">
+        <f>TextData!B9</f>
+        <v>凍結</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>31</v>
       </c>
       <c r="B10">
         <v>31</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="str">
+        <f>TextData!B10</f>
+        <v>状態異常無効</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>32</v>
       </c>
       <c r="B11">
         <v>32</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="str">
+        <f>TextData!B11</f>
+        <v>攻撃範囲延長</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>41</v>
       </c>
       <c r="B12">
         <v>41</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" t="s">
+        <v>13</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="str">
+        <f>TextData!B12</f>
+        <v>最大Hpアップ</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>42</v>
       </c>
       <c r="B13">
         <v>42</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="str">
+        <f>TextData!B13</f>
+        <v>最大Mpアップ</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>43</v>
       </c>
       <c r="B14">
         <v>43</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>15</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="str">
+        <f>TextData!B14</f>
+        <v>攻撃アップ</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>44</v>
       </c>
       <c r="B15">
         <v>44</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>16</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="str">
+        <f>TextData!B15</f>
+        <v>防御アップ</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>45</v>
       </c>
       <c r="B16">
         <v>45</v>
       </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="C16" t="s">
+        <v>17</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="str">
+        <f>TextData!B16</f>
+        <v>速度アップ</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>46</v>
       </c>
       <c r="B17">
         <v>46</v>
       </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" t="s">
+        <v>15</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="str">
+        <f>TextData!B17</f>
+        <v>ダメージ威力アップ</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>47</v>
       </c>
       <c r="B18">
         <v>47</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>18</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="str">
+        <f>TextData!B18</f>
+        <v>クリティカル発生率アップ</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>52</v>
       </c>
       <c r="B19">
         <v>52</v>
       </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="C19" t="s">
+        <v>19</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="str">
+        <f>TextData!B19</f>
+        <v>回避アップ</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>53</v>
       </c>
       <c r="B20">
         <v>53</v>
       </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="C20" t="s">
+        <v>17</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="str">
+        <f>TextData!B20</f>
+        <v>アクセル</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>61</v>
       </c>
       <c r="B21">
         <v>61</v>
       </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="C21" t="s">
+        <v>20</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="str">
+        <f>TextData!B21</f>
+        <v>狙われ率アップ</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>62</v>
       </c>
       <c r="B22">
         <v>62</v>
       </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="C22" t="s">
+        <v>21</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="str">
+        <f>TextData!B22</f>
+        <v>狙われ率ダウン</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>101</v>
       </c>
       <c r="B23">
         <v>101</v>
       </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="C23" t="s">
+        <v>22</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="str">
+        <f>TextData!B23</f>
+        <v>拘束</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>102</v>
       </c>
       <c r="B24">
         <v>102</v>
       </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="C24" t="s">
+        <v>22</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="str">
+        <f>TextData!B24</f>
+        <v>拘束ダメージ</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>103</v>
       </c>
       <c r="B25">
         <v>103</v>
       </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="C25" t="s">
+        <v>23</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="str">
+        <f>TextData!B25</f>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>104</v>
       </c>
       <c r="B26">
         <v>104</v>
       </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="C26" t="s">
+        <v>24</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="str">
+        <f>TextData!B26</f>
+        <v>攻撃無効</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>105</v>
       </c>
       <c r="B27">
         <v>105</v>
       </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="C27" t="s">
+        <v>25</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="str">
+        <f>TextData!B27</f>
+        <v>リジェネ</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>106</v>
       </c>
@@ -1517,22 +1699,30 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="str">
+        <f>TextData!B28</f>
+        <v>行動後AP設定</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>107</v>
       </c>
       <c r="B29">
         <v>107</v>
       </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="C29" t="s">
+        <v>20</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="str">
+        <f>TextData!B29</f>
+        <v>挑発</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>108</v>
       </c>
@@ -1545,153 +1735,197 @@
       <c r="D30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="str">
+        <f>TextData!B30</f>
+        <v>バニッシュ</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>109</v>
       </c>
       <c r="B31">
         <v>109</v>
       </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="C31" t="s">
+        <v>25</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="str">
+        <f>TextData!B31</f>
+        <v>祝福</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>110</v>
       </c>
       <c r="B32">
         <v>110</v>
       </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="C32" t="s">
+        <v>26</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="str">
+        <f>TextData!B32</f>
+        <v>呪い</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>111</v>
       </c>
       <c r="B33">
         <v>111</v>
       </c>
-      <c r="C33">
-        <v>1</v>
+      <c r="C33" t="s">
+        <v>27</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="str">
+        <f>TextData!B33</f>
+        <v>ドレイン</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>112</v>
       </c>
       <c r="B34">
         <v>112</v>
       </c>
-      <c r="C34">
-        <v>1</v>
+      <c r="C34" t="s">
+        <v>25</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="str">
+        <f>TextData!B34</f>
+        <v>アフターヒール</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>113</v>
       </c>
       <c r="B35">
         <v>113</v>
       </c>
-      <c r="C35">
-        <v>1</v>
+      <c r="C35" t="s">
+        <v>23</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="str">
+        <f>TextData!B35</f>
+        <v>CAダメージ</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>114</v>
       </c>
       <c r="B36">
         <v>114</v>
       </c>
-      <c r="C36">
-        <v>1</v>
+      <c r="C36" t="s">
+        <v>4</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="str">
+        <f>TextData!B36</f>
+        <v>攻撃で即死</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>115</v>
       </c>
       <c r="B37">
         <v>115</v>
       </c>
-      <c r="C37">
-        <v>1</v>
+      <c r="C37" t="s">
+        <v>25</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="str">
+        <f>TextData!B37</f>
+        <v>CA回復</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>116</v>
       </c>
       <c r="B38">
         <v>116</v>
       </c>
-      <c r="C38">
-        <v>1</v>
+      <c r="C38" t="s">
+        <v>25</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="str">
+        <f>TextData!B38</f>
+        <v>同時回復</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>117</v>
       </c>
       <c r="B39">
         <v>117</v>
       </c>
-      <c r="C39">
-        <v>1</v>
+      <c r="C39" t="s">
+        <v>28</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="str">
+        <f>TextData!B39</f>
+        <v>アンデッド</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
+        <v>118</v>
+      </c>
+      <c r="B40">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="str">
+        <f>TextData!B40</f>
+        <v>必中</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
         <v>201</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>201</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>202</v>
-      </c>
-      <c r="B41">
-        <v>202</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1699,13 +1933,17 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="str">
+        <f>TextData!B41</f>
+        <v>炎適正</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1713,13 +1951,17 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="str">
+        <f>TextData!B42</f>
+        <v>雷適性</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1727,19 +1969,45 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="str">
+        <f>TextData!B43</f>
+        <v>氷適性</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B44">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <f>TextData!B44</f>
+        <v>光適性</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>205</v>
+      </c>
+      <c r="B45">
+        <v>205</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <f>TextData!B45</f>
+        <v>闇適性</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +2019,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1767,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1778,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1789,10 +2057,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1800,10 +2068,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1811,10 +2079,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1822,10 +2090,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1833,10 +2101,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1844,10 +2112,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1855,10 +2123,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1866,10 +2134,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1877,10 +2145,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1888,10 +2156,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1899,10 +2167,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1910,10 +2178,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1921,10 +2189,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1932,10 +2200,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1943,10 +2211,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1954,10 +2222,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1965,10 +2233,10 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1976,10 +2244,10 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1987,10 +2255,10 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1998,10 +2266,10 @@
         <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2009,10 +2277,10 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2020,10 +2288,10 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2031,10 +2299,10 @@
         <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2042,10 +2310,10 @@
         <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2053,10 +2321,10 @@
         <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2064,10 +2332,10 @@
         <v>106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2075,10 +2343,10 @@
         <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2086,10 +2354,10 @@
         <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2097,10 +2365,10 @@
         <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2108,10 +2376,10 @@
         <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2119,10 +2387,10 @@
         <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2130,10 +2398,10 @@
         <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2141,10 +2409,10 @@
         <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2152,10 +2420,10 @@
         <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2163,10 +2431,10 @@
         <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2174,10 +2442,10 @@
         <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2185,65 +2453,76 @@
         <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
+        <v>204</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
         <v>205</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -255,8 +255,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -268,68 +268,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,16 +291,37 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,7 +329,59 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,30 +397,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,12 +432,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -450,163 +504,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,17 +617,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -648,8 +637,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -658,8 +649,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,17 +670,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,8 +682,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,6 +702,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -725,7 +725,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,136 +734,136 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,8 +1198,8 @@
   <sheetPr/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
   <si>
     <t>Id</t>
   </si>
@@ -125,127 +125,241 @@
     <t>鈍足</t>
   </si>
   <si>
+    <t>行動できるまでの時間がかかる</t>
+  </si>
+  <si>
     <t>スタン</t>
   </si>
   <si>
+    <t>一定時間行動できなくなる</t>
+  </si>
+  <si>
     <t>火傷</t>
   </si>
   <si>
+    <t>行動後ダメージ</t>
+  </si>
+  <si>
     <t>暗闇</t>
   </si>
   <si>
+    <t>攻撃魔法が当たりにくくなる</t>
+  </si>
+  <si>
     <t>即死</t>
   </si>
   <si>
     <t>凍結</t>
   </si>
   <si>
+    <t>攻撃すると自身にダメージ</t>
+  </si>
+  <si>
     <t>状態異常無効</t>
   </si>
   <si>
-    <t>攻撃範囲延長</t>
+    <t>鈍足・スタン・火傷・暗闇にかからなくなる</t>
+  </si>
+  <si>
+    <t>対象範囲延長</t>
+  </si>
+  <si>
+    <t>範囲外の対象を選択できる</t>
   </si>
   <si>
     <t>最大Hpアップ</t>
   </si>
   <si>
+    <t>戦闘中最大Hpがアップ</t>
+  </si>
+  <si>
     <t>最大Mpアップ</t>
   </si>
   <si>
+    <t>戦闘中最大Mpがアップ</t>
+  </si>
+  <si>
     <t>攻撃アップ</t>
   </si>
   <si>
+    <t>戦闘中攻撃がアップ</t>
+  </si>
+  <si>
     <t>防御アップ</t>
   </si>
   <si>
+    <t>戦闘中防御がアップ</t>
+  </si>
+  <si>
     <t>速度アップ</t>
   </si>
   <si>
+    <t>戦闘中速度がアップ</t>
+  </si>
+  <si>
     <t>ダメージ威力アップ</t>
   </si>
   <si>
+    <t>戦闘中攻撃魔法がアップ</t>
+  </si>
+  <si>
     <t>クリティカル発生率アップ</t>
   </si>
   <si>
+    <t>戦闘中クリティカル発生率がアップ</t>
+  </si>
+  <si>
     <t>回避アップ</t>
   </si>
   <si>
+    <t>戦闘中回避率がアップ</t>
+  </si>
+  <si>
     <t>アクセル</t>
   </si>
   <si>
+    <t>行動後速度がアップしつづける</t>
+  </si>
+  <si>
     <t>狙われ率アップ</t>
   </si>
   <si>
+    <t>戦闘中狙われやすくなる</t>
+  </si>
+  <si>
     <t>狙われ率ダウン</t>
   </si>
   <si>
+    <t>戦闘中狙われにくくなる</t>
+  </si>
+  <si>
     <t>拘束</t>
   </si>
   <si>
+    <t>一定時間ダメージを受け続け行動できなくなる</t>
+  </si>
+  <si>
     <t>拘束ダメージ</t>
   </si>
   <si>
+    <t>拘束対象への付与ダメージをアップ</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
+    <t>静止状態になり攻撃を受けるとダメージを反撃</t>
+  </si>
+  <si>
     <t>攻撃無効</t>
   </si>
   <si>
+    <t>攻撃が効かなくなる</t>
+  </si>
+  <si>
     <t>リジェネ</t>
   </si>
   <si>
+    <t>行動後Hpを回復</t>
+  </si>
+  <si>
     <t>行動後AP設定</t>
   </si>
   <si>
     <t>挑発</t>
   </si>
   <si>
+    <t>攻撃の対象を自身に固定する</t>
+  </si>
+  <si>
     <t>バニッシュ</t>
   </si>
   <si>
     <t>祝福</t>
   </si>
   <si>
+    <t>静止状態になり自身以外のHpを回復しつづける</t>
+  </si>
+  <si>
     <t>呪い</t>
   </si>
   <si>
+    <t>受けたダメージを相手にも返す</t>
+  </si>
+  <si>
     <t>ドレイン</t>
   </si>
   <si>
+    <t>攻撃ダメージの一部を自身のHpに変換する</t>
+  </si>
+  <si>
     <t>アフターヒール</t>
   </si>
   <si>
+    <t>行動後自身のHpを回復</t>
+  </si>
+  <si>
     <t>CAダメージ</t>
   </si>
   <si>
-    <t>攻撃で即死</t>
+    <t>CAの反撃ダメージをアップ</t>
+  </si>
+  <si>
+    <t>攻撃を当てると一定確率で即死を付与</t>
   </si>
   <si>
     <t>CA回復</t>
   </si>
   <si>
+    <t>CAダメージの一部を自身のHpに変換する</t>
+  </si>
+  <si>
     <t>同時回復</t>
   </si>
   <si>
+    <t>Hpを回復すると自身のHpも回復する</t>
+  </si>
+  <si>
     <t>アンデッド</t>
   </si>
   <si>
+    <t>１度だけ戦闘不能から復活し行動後Hpを回復しつづける</t>
+  </si>
+  <si>
     <t>必中</t>
   </si>
   <si>
+    <t>攻撃が必ずあたるようになる</t>
+  </si>
+  <si>
     <t>炎適正</t>
   </si>
   <si>
+    <t>炎魔法の習得に必要な(Nu)コストをダウン</t>
+  </si>
+  <si>
     <t>雷適性</t>
   </si>
   <si>
+    <t>雷魔法の習得に必要な(Nu)コストをダウン</t>
+  </si>
+  <si>
     <t>氷適性</t>
   </si>
   <si>
+    <t>氷魔法の習得に必要な(Nu)コストをダウン</t>
+  </si>
+  <si>
     <t>光適性</t>
   </si>
   <si>
+    <t>光魔法の習得に必要な(Nu)コストをダウン</t>
+  </si>
+  <si>
     <t>闇適性</t>
+  </si>
+  <si>
+    <t>闇魔法の習得に必要な(Nu)コストをダウン</t>
   </si>
 </sst>
 </file>
@@ -254,8 +368,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -264,6 +378,65 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,35 +451,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,8 +472,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,58 +517,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -402,14 +524,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -426,187 +540,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,6 +784,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -684,21 +813,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,16 +839,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,131 +857,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,6 +989,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1198,7 +1315,7 @@
   <sheetPr/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1395,7 +1512,7 @@
       </c>
       <c r="E11" t="str">
         <f>TextData!B11</f>
-        <v>攻撃範囲延長</v>
+        <v>対象範囲延長</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1845,7 +1962,7 @@
       </c>
       <c r="E36" t="str">
         <f>TextData!B36</f>
-        <v>攻撃で即死</v>
+        <v>即死</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2021,8 +2138,8 @@
   <sheetPr/>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="A30:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2071,7 +2188,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2079,10 +2196,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2090,10 +2207,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2101,20 +2218,20 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2123,10 +2240,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2134,10 +2251,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2145,10 +2262,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2156,10 +2273,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2167,10 +2284,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2178,10 +2295,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2189,10 +2306,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2200,10 +2317,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2211,10 +2328,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2222,10 +2339,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2233,10 +2350,10 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2244,10 +2361,10 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2255,10 +2372,10 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2266,10 +2383,10 @@
         <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2277,10 +2394,10 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2288,10 +2405,10 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2299,10 +2416,10 @@
         <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2310,10 +2427,10 @@
         <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2321,10 +2438,10 @@
         <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2332,7 +2449,7 @@
         <v>106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>32</v>
@@ -2343,20 +2460,20 @@
         <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>108</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2365,10 +2482,10 @@
         <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2376,10 +2493,10 @@
         <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2387,10 +2504,10 @@
         <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2398,10 +2515,10 @@
         <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2409,10 +2526,10 @@
         <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2420,10 +2537,10 @@
         <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2431,10 +2548,10 @@
         <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2442,10 +2559,10 @@
         <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2453,10 +2570,10 @@
         <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2464,10 +2581,10 @@
         <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2475,10 +2592,10 @@
         <v>201</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2486,10 +2603,10 @@
         <v>202</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2497,10 +2614,10 @@
         <v>203</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2508,10 +2625,10 @@
         <v>204</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2519,10 +2636,10 @@
         <v>205</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
   <si>
     <t>Id</t>
   </si>
@@ -29,24 +29,42 @@
     <t>RemovalTiming</t>
   </si>
   <si>
+    <t>EffectPath</t>
+  </si>
+  <si>
     <t>Death</t>
   </si>
   <si>
+    <t>""</t>
+  </si>
+  <si>
     <t>Butterfly</t>
   </si>
   <si>
     <t>Turtle</t>
   </si>
   <si>
+    <t>MAGICALxSPIRAL/Undine11</t>
+  </si>
+  <si>
     <t>Stun</t>
   </si>
   <si>
+    <t>MAGICALxSPIRAL/Thunder3</t>
+  </si>
+  <si>
     <t>Burning</t>
   </si>
   <si>
+    <t>MAGICALxSPIRAL/Salamander7</t>
+  </si>
+  <si>
     <t>Blind</t>
   </si>
   <si>
+    <t>NA_Effekseer/NA_poison_001</t>
+  </si>
+  <si>
     <t>Freeze</t>
   </si>
   <si>
@@ -86,12 +104,21 @@
     <t>Imprisoned</t>
   </si>
   <si>
+    <t>MAGICALxSPIRAL/Thunder1</t>
+  </si>
+  <si>
     <t>ShieldReflect</t>
   </si>
   <si>
+    <t>MAGICALxSPIRAL/AquaPoint</t>
+  </si>
+  <si>
     <t>MagicShield.</t>
   </si>
   <si>
+    <t>MAGICALxSPIRAL/WHead1</t>
+  </si>
+  <si>
     <t>Healing</t>
   </si>
   <si>
@@ -111,9 +138,6 @@
   </si>
   <si>
     <t>戦闘不能</t>
-  </si>
-  <si>
-    <t>""</t>
   </si>
   <si>
     <t>神化</t>
@@ -367,10 +391,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -378,35 +402,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,23 +413,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,7 +430,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,14 +460,44 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,31 +513,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -517,9 +527,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,19 +564,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,43 +702,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,115 +744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,6 +755,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -745,26 +780,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,15 +817,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -831,6 +837,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -839,145 +863,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1313,15 +1337,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,8 +1358,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1343,17 +1370,20 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="str">
-        <f>TextData!B2</f>
-        <v>戦闘不能</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="str">
+        <f>TextData!C2</f>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>11</v>
       </c>
@@ -1361,17 +1391,20 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="str">
         <f>TextData!B3</f>
         <v>神化</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>21</v>
       </c>
@@ -1379,17 +1412,20 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="str">
         <f>TextData!B4</f>
         <v>鈍足</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>22</v>
       </c>
@@ -1397,17 +1433,20 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="str">
         <f>TextData!B5</f>
         <v>スタン</v>
       </c>
     </row>
-    <row r="6" ht="12" customHeight="1" spans="1:5">
+    <row r="6" ht="12" customHeight="1" spans="1:6">
       <c r="A6">
         <v>23</v>
       </c>
@@ -1415,17 +1454,20 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="str">
         <f>TextData!B6</f>
         <v>火傷</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>24</v>
       </c>
@@ -1433,17 +1475,20 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="str">
         <f>TextData!B7</f>
         <v>暗闇</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>25</v>
       </c>
@@ -1451,17 +1496,20 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="str">
         <f>TextData!B8</f>
         <v>即死</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>26</v>
       </c>
@@ -1469,17 +1517,20 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="str">
         <f>TextData!B9</f>
         <v>凍結</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>31</v>
       </c>
@@ -1487,17 +1538,20 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="str">
         <f>TextData!B10</f>
         <v>状態異常無効</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1505,17 +1559,20 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="str">
         <f>TextData!B11</f>
         <v>対象範囲延長</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>41</v>
       </c>
@@ -1523,17 +1580,20 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="str">
         <f>TextData!B12</f>
         <v>最大Hpアップ</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>42</v>
       </c>
@@ -1541,17 +1601,20 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="str">
         <f>TextData!B13</f>
         <v>最大Mpアップ</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>43</v>
       </c>
@@ -1559,17 +1622,20 @@
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="str">
         <f>TextData!B14</f>
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>44</v>
       </c>
@@ -1577,17 +1643,20 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="str">
         <f>TextData!B15</f>
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>45</v>
       </c>
@@ -1595,17 +1664,20 @@
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="str">
         <f>TextData!B16</f>
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>46</v>
       </c>
@@ -1613,17 +1685,20 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="str">
         <f>TextData!B17</f>
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>47</v>
       </c>
@@ -1631,17 +1706,20 @@
         <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="str">
         <f>TextData!B18</f>
         <v>クリティカル発生率アップ</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>52</v>
       </c>
@@ -1649,17 +1727,20 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="str">
         <f>TextData!B19</f>
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>53</v>
       </c>
@@ -1667,17 +1748,20 @@
         <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="str">
         <f>TextData!B20</f>
         <v>アクセル</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>61</v>
       </c>
@@ -1685,17 +1769,20 @@
         <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="str">
         <f>TextData!B21</f>
         <v>狙われ率アップ</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>62</v>
       </c>
@@ -1703,17 +1790,20 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="str">
         <f>TextData!B22</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>101</v>
       </c>
@@ -1721,17 +1811,20 @@
         <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="str">
         <f>TextData!B23</f>
         <v>拘束</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>102</v>
       </c>
@@ -1739,17 +1832,20 @@
         <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="str">
         <f>TextData!B24</f>
         <v>拘束ダメージ</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>103</v>
       </c>
@@ -1757,17 +1853,20 @@
         <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="str">
         <f>TextData!B25</f>
         <v>CA</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>104</v>
       </c>
@@ -1775,17 +1874,20 @@
         <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="str">
         <f>TextData!B26</f>
         <v>攻撃無効</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>105</v>
       </c>
@@ -1793,17 +1895,20 @@
         <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="str">
         <f>TextData!B27</f>
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>106</v>
       </c>
@@ -1816,12 +1921,15 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="str">
         <f>TextData!B28</f>
         <v>行動後AP設定</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>107</v>
       </c>
@@ -1829,17 +1937,20 @@
         <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="str">
         <f>TextData!B29</f>
         <v>挑発</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>108</v>
       </c>
@@ -1852,12 +1963,15 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="str">
         <f>TextData!B30</f>
         <v>バニッシュ</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>109</v>
       </c>
@@ -1865,17 +1979,20 @@
         <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
-      <c r="E31" t="str">
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="str">
         <f>TextData!B31</f>
         <v>祝福</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>110</v>
       </c>
@@ -1883,17 +2000,20 @@
         <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="str">
         <f>TextData!B32</f>
         <v>呪い</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>111</v>
       </c>
@@ -1901,17 +2021,20 @@
         <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" t="str">
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="str">
         <f>TextData!B33</f>
         <v>ドレイン</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>112</v>
       </c>
@@ -1919,17 +2042,20 @@
         <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="str">
         <f>TextData!B34</f>
         <v>アフターヒール</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>113</v>
       </c>
@@ -1937,17 +2063,20 @@
         <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="str">
         <f>TextData!B35</f>
         <v>CAダメージ</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>114</v>
       </c>
@@ -1955,17 +2084,20 @@
         <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="str">
         <f>TextData!B36</f>
         <v>即死</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>115</v>
       </c>
@@ -1973,17 +2105,20 @@
         <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="str">
         <f>TextData!B37</f>
         <v>CA回復</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>116</v>
       </c>
@@ -1991,17 +2126,20 @@
         <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="str">
         <f>TextData!B38</f>
         <v>同時回復</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>117</v>
       </c>
@@ -2009,17 +2147,20 @@
         <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="str">
         <f>TextData!B39</f>
         <v>アンデッド</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>118</v>
       </c>
@@ -2027,17 +2168,20 @@
         <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="str">
         <f>TextData!B40</f>
         <v>必中</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>201</v>
       </c>
@@ -2050,12 +2194,15 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="str">
         <f>TextData!B41</f>
         <v>炎適正</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>202</v>
       </c>
@@ -2068,12 +2215,15 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="str">
         <f>TextData!B42</f>
         <v>雷適性</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>203</v>
       </c>
@@ -2086,12 +2236,15 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="str">
         <f>TextData!B43</f>
         <v>氷適性</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>204</v>
       </c>
@@ -2104,12 +2257,15 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="str">
         <f>TextData!B44</f>
         <v>光適性</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>205</v>
       </c>
@@ -2122,7 +2278,10 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" t="str">
         <f>TextData!B45</f>
         <v>闇適性</v>
       </c>
@@ -2138,8 +2297,8 @@
   <sheetPr/>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="A30:C30"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2152,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2163,10 +2322,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2174,10 +2333,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2185,10 +2344,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2196,10 +2355,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2207,10 +2366,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2218,10 +2377,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2229,10 +2388,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2240,10 +2399,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2251,10 +2410,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2262,10 +2421,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2273,10 +2432,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2284,10 +2443,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2295,10 +2454,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2306,10 +2465,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2317,10 +2476,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2328,10 +2487,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2339,10 +2498,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2350,10 +2509,10 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2361,10 +2520,10 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2372,10 +2531,10 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2383,10 +2542,10 @@
         <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2394,10 +2553,10 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2405,10 +2564,10 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2416,10 +2575,10 @@
         <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2427,10 +2586,10 @@
         <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2438,10 +2597,10 @@
         <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2449,10 +2608,10 @@
         <v>106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2460,10 +2619,10 @@
         <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2471,10 +2630,10 @@
         <v>108</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2482,10 +2641,10 @@
         <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2493,10 +2652,10 @@
         <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2504,10 +2663,10 @@
         <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2515,10 +2674,10 @@
         <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2526,10 +2685,10 @@
         <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2537,10 +2696,10 @@
         <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2548,10 +2707,10 @@
         <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2559,10 +2718,10 @@
         <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2570,10 +2729,10 @@
         <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2581,10 +2740,10 @@
         <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2592,10 +2751,10 @@
         <v>201</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2603,10 +2762,10 @@
         <v>202</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2614,10 +2773,10 @@
         <v>203</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2625,10 +2784,10 @@
         <v>204</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2636,10 +2795,10 @@
         <v>205</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -391,9 +391,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -406,21 +406,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -428,86 +413,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,8 +436,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,12 +452,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -564,6 +564,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -576,175 +600,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,32 +755,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -795,6 +769,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,11 +797,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,8 +829,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -855,6 +846,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -863,145 +863,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,11 +1339,14 @@
   <sheetPr/>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
+  <cols>
+    <col min="5" max="5" width="31.1818181818182" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -402,6 +402,13 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,7 +421,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,9 +436,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,17 +473,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,44 +489,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,30 +525,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,31 +564,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,151 +738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,6 +755,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -782,32 +797,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,17 +834,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -847,11 +841,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,145 +863,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,8 +1339,8 @@
   <sheetPr/>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -2300,7 +2300,7 @@
   <sheetPr/>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <t>MAGICALxSPIRAL/AquaPoint</t>
   </si>
   <si>
-    <t>MagicShield.</t>
+    <t>MagicShield</t>
   </si>
   <si>
     <t>MAGICALxSPIRAL/WHead1</t>
@@ -391,10 +391,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -405,28 +405,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -443,23 +467,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,10 +488,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,39 +513,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,15 +536,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,31 +564,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,13 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,25 +666,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +690,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,31 +720,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,55 +738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,17 +758,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,20 +791,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,6 +817,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -828,15 +837,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,145 +863,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,8 +1339,8 @@
   <sheetPr/>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -2300,7 +2300,7 @@
   <sheetPr/>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="125">
   <si>
     <t>Id</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>戦闘中クリティカル発生率がアップ</t>
+  </si>
+  <si>
+    <t>命中アップ</t>
+  </si>
+  <si>
+    <t>戦闘中命中率がアップ</t>
   </si>
   <si>
     <t>回避アップ</t>
@@ -391,10 +397,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -413,24 +419,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,6 +488,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -481,62 +533,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,13 +570,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,169 +690,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,11 +773,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,27 +818,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -840,21 +861,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -863,16 +869,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,49 +887,49 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -932,76 +938,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1337,10 +1343,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1724,13 +1730,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1740,60 +1746,60 @@
       </c>
       <c r="F19" t="str">
         <f>TextData!B19</f>
-        <v>回避アップ</v>
+        <v>命中アップ</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="str">
         <f>TextData!B20</f>
-        <v>アクセル</v>
+        <v>回避アップ</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
       </c>
       <c r="F21" t="str">
         <f>TextData!B21</f>
-        <v>狙われ率アップ</v>
+        <v>アクセル</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1803,165 +1809,165 @@
       </c>
       <c r="F22" t="str">
         <f>TextData!B22</f>
-        <v>狙われ率ダウン</v>
+        <v>狙われ率アップ</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F23" t="str">
         <f>TextData!B23</f>
-        <v>拘束</v>
+        <v>狙われ率ダウン</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F24" t="str">
         <f>TextData!B24</f>
-        <v>拘束ダメージ</v>
+        <v>拘束</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F25" t="str">
         <f>TextData!B25</f>
-        <v>CA</v>
+        <v>拘束ダメージ</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F26" t="str">
         <f>TextData!B26</f>
-        <v>攻撃無効</v>
+        <v>CA</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F27" t="str">
         <f>TextData!B27</f>
-        <v>リジェネ</v>
+        <v>攻撃無効</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28">
-        <v>106</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
       </c>
       <c r="F28" t="str">
         <f>TextData!B28</f>
-        <v>行動後AP設定</v>
+        <v>リジェネ</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29">
-        <v>107</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
+        <v>106</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
       </c>
       <c r="F29" t="str">
         <f>TextData!B29</f>
-        <v>挑発</v>
+        <v>行動後AP設定</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30">
-        <v>108</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1971,60 +1977,60 @@
       </c>
       <c r="F30" t="str">
         <f>TextData!B30</f>
-        <v>バニッシュ</v>
+        <v>挑発</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31">
-        <v>109</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
+        <v>108</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
       <c r="F31" t="str">
         <f>TextData!B31</f>
-        <v>祝福</v>
+        <v>バニッシュ</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
       </c>
       <c r="F32" t="str">
         <f>TextData!B32</f>
-        <v>呪い</v>
+        <v>祝福</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2034,18 +2040,18 @@
       </c>
       <c r="F33" t="str">
         <f>TextData!B33</f>
-        <v>ドレイン</v>
+        <v>呪い</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2055,18 +2061,18 @@
       </c>
       <c r="F34" t="str">
         <f>TextData!B34</f>
-        <v>アフターヒール</v>
+        <v>ドレイン</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2076,39 +2082,39 @@
       </c>
       <c r="F35" t="str">
         <f>TextData!B35</f>
-        <v>CAダメージ</v>
+        <v>アフターヒール</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
       </c>
       <c r="F36" t="str">
         <f>TextData!B36</f>
-        <v>即死</v>
+        <v>CAダメージ</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2118,15 +2124,15 @@
       </c>
       <c r="F37" t="str">
         <f>TextData!B37</f>
-        <v>CA回復</v>
+        <v>即死</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
@@ -2139,18 +2145,18 @@
       </c>
       <c r="F38" t="str">
         <f>TextData!B38</f>
-        <v>同時回復</v>
+        <v>CA回復</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2160,57 +2166,57 @@
       </c>
       <c r="F39" t="str">
         <f>TextData!B39</f>
-        <v>アンデッド</v>
+        <v>同時回復</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
       </c>
       <c r="F40" t="str">
         <f>TextData!B40</f>
-        <v>必中</v>
+        <v>アンデッド</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B41">
-        <v>201</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
       </c>
       <c r="F41" t="str">
         <f>TextData!B41</f>
-        <v>炎適正</v>
+        <v>必中</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B42">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2223,15 +2229,15 @@
       </c>
       <c r="F42" t="str">
         <f>TextData!B42</f>
-        <v>雷適性</v>
+        <v>炎適正</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B43">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2244,15 +2250,15 @@
       </c>
       <c r="F43" t="str">
         <f>TextData!B43</f>
-        <v>氷適性</v>
+        <v>雷適性</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2265,15 +2271,15 @@
       </c>
       <c r="F44" t="str">
         <f>TextData!B44</f>
-        <v>光適性</v>
+        <v>氷適性</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B45">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2286,6 +2292,27 @@
       </c>
       <c r="F45" t="str">
         <f>TextData!B45</f>
+        <v>光適性</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>205</v>
+      </c>
+      <c r="B46">
+        <v>205</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="str">
+        <f>TextData!B46</f>
         <v>闇適性</v>
       </c>
     </row>
@@ -2298,10 +2325,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2509,7 +2536,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -2520,7 +2547,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -2531,7 +2558,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -2542,7 +2569,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>78</v>
@@ -2553,18 +2580,18 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
@@ -2575,7 +2602,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
         <v>84</v>
@@ -2586,7 +2613,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
         <v>86</v>
@@ -2597,7 +2624,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
         <v>88</v>
@@ -2607,52 +2634,52 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2">
+      <c r="A28">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
         <v>106</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
+      <c r="B29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
         <v>107</v>
       </c>
-      <c r="B29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
         <v>108</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>109</v>
-      </c>
-      <c r="B31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="2" t="s">
         <v>95</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
         <v>96</v>
@@ -2663,7 +2690,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
         <v>98</v>
@@ -2674,7 +2701,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
         <v>100</v>
@@ -2685,7 +2712,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
         <v>102</v>
@@ -2696,21 +2723,21 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
         <v>106</v>
@@ -2718,7 +2745,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
         <v>107</v>
@@ -2729,7 +2756,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
         <v>109</v>
@@ -2740,7 +2767,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
         <v>111</v>
@@ -2751,7 +2778,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
         <v>113</v>
@@ -2762,7 +2789,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s">
         <v>115</v>
@@ -2773,7 +2800,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s">
         <v>117</v>
@@ -2784,7 +2811,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s">
         <v>119</v>
@@ -2795,13 +2822,24 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s">
         <v>121</v>
       </c>
       <c r="C45" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>205</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="126">
   <si>
     <t>Id</t>
   </si>
@@ -74,25 +74,28 @@
     <t>Spyglass</t>
   </si>
   <si>
-    <t>HeartPlus.</t>
-  </si>
-  <si>
-    <t>MoebiusTrefoil.</t>
+    <t>HeartPlus</t>
+  </si>
+  <si>
+    <t>MoebiusTrefoil</t>
   </si>
   <si>
     <t>Arrow</t>
   </si>
   <si>
-    <t>ArmorUpgrade.</t>
+    <t>ArmorUpgrade</t>
+  </si>
+  <si>
+    <t>Wingfoot</t>
+  </si>
+  <si>
+    <t>ArrowScope</t>
+  </si>
+  <si>
+    <t>Dodging</t>
   </si>
   <si>
     <t>Wingfoot.</t>
-  </si>
-  <si>
-    <t>ArrowScope.</t>
-  </si>
-  <si>
-    <t>Dodging</t>
   </si>
   <si>
     <t>VitruvianMan</t>
@@ -397,9 +400,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -411,6 +414,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -419,8 +473,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,7 +490,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,37 +498,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,10 +535,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,57 +550,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -570,109 +573,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,73 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,15 +764,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -788,16 +782,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -820,17 +814,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -847,17 +830,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,145 +872,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1345,12 +1348,13 @@
   <sheetPr/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
   <cols>
+    <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
     <col min="5" max="5" width="31.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1778,7 +1782,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1799,7 +1803,7 @@
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1820,7 +1824,7 @@
         <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1841,13 +1845,13 @@
         <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F24" t="str">
         <f>TextData!B24</f>
@@ -1862,7 +1866,7 @@
         <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1883,13 +1887,13 @@
         <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" t="str">
         <f>TextData!B26</f>
@@ -1904,13 +1908,13 @@
         <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F27" t="str">
         <f>TextData!B27</f>
@@ -1925,7 +1929,7 @@
         <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1967,7 +1971,7 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2009,7 +2013,7 @@
         <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2030,7 +2034,7 @@
         <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2051,7 +2055,7 @@
         <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2072,7 +2076,7 @@
         <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2093,7 +2097,7 @@
         <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2135,7 +2139,7 @@
         <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2156,7 +2160,7 @@
         <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2177,7 +2181,7 @@
         <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2341,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2352,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -2363,10 +2367,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2374,10 +2378,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2385,10 +2389,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2396,10 +2400,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2407,10 +2411,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2418,7 +2422,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -2429,10 +2433,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2440,10 +2444,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2451,10 +2455,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2462,10 +2466,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2473,10 +2477,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2484,10 +2488,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2495,10 +2499,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2506,10 +2510,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2517,10 +2521,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2528,10 +2532,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2539,10 +2543,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2550,10 +2554,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2561,10 +2565,10 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2572,10 +2576,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2583,10 +2587,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2594,10 +2598,10 @@
         <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2605,10 +2609,10 @@
         <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2616,10 +2620,10 @@
         <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2627,10 +2631,10 @@
         <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2638,10 +2642,10 @@
         <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2649,7 +2653,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -2660,10 +2664,10 @@
         <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2671,7 +2675,7 @@
         <v>108</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -2682,10 +2686,10 @@
         <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2693,10 +2697,10 @@
         <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2704,10 +2708,10 @@
         <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2715,10 +2719,10 @@
         <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2726,10 +2730,10 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2737,10 +2741,10 @@
         <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2748,10 +2752,10 @@
         <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2759,10 +2763,10 @@
         <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2770,10 +2774,10 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2781,10 +2785,10 @@
         <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2792,10 +2796,10 @@
         <v>201</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2803,10 +2807,10 @@
         <v>202</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2814,10 +2818,10 @@
         <v>203</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2825,10 +2829,10 @@
         <v>204</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2836,10 +2840,10 @@
         <v>205</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19100" windowHeight="7850"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
   <si>
     <t>Id</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Dodging</t>
-  </si>
-  <si>
-    <t>Wingfoot.</t>
   </si>
   <si>
     <t>VitruvianMan</t>
@@ -400,10 +397,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -415,13 +412,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -429,14 +419,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,7 +434,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -459,30 +442,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,17 +465,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,8 +509,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,29 +541,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -573,187 +570,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,36 +761,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -821,22 +788,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,8 +830,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,145 +869,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,12 +1033,12 @@
     <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
     <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
     <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
-    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
-    <cellStyle name="メモ" xfId="12" builtinId="10"/>
+    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
+    <cellStyle name="メモ" xfId="8" builtinId="10"/>
+    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
     <cellStyle name="良い" xfId="13" builtinId="26"/>
     <cellStyle name="警告文" xfId="14" builtinId="11"/>
     <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
@@ -1079,12 +1076,7 @@
     <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1344,12 +1336,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1782,7 +1774,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1803,7 +1795,7 @@
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1824,7 +1816,7 @@
         <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1845,13 +1837,13 @@
         <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="str">
         <f>TextData!B24</f>
@@ -1866,7 +1858,7 @@
         <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1887,13 +1879,13 @@
         <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" t="str">
         <f>TextData!B26</f>
@@ -1908,13 +1900,13 @@
         <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" t="str">
         <f>TextData!B27</f>
@@ -1929,7 +1921,7 @@
         <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1971,7 +1963,7 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2013,7 +2005,7 @@
         <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2034,7 +2026,7 @@
         <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2055,7 +2047,7 @@
         <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2076,7 +2068,7 @@
         <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2097,7 +2089,7 @@
         <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2139,7 +2131,7 @@
         <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2160,7 +2152,7 @@
         <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2181,7 +2173,7 @@
         <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2327,11 +2319,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2345,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2356,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -2367,10 +2359,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2378,10 +2370,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2389,10 +2381,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2400,10 +2392,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2411,10 +2403,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2422,7 +2414,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -2433,10 +2425,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2444,10 +2436,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2455,10 +2447,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2466,10 +2458,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2477,10 +2469,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2488,10 +2480,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2499,10 +2491,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2510,10 +2502,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2521,10 +2513,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2532,10 +2524,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2543,10 +2535,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2554,10 +2546,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2565,10 +2557,10 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2576,10 +2568,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2587,10 +2579,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2598,10 +2590,10 @@
         <v>101</v>
       </c>
       <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
         <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2609,10 +2601,10 @@
         <v>102</v>
       </c>
       <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
         <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2620,10 +2612,10 @@
         <v>103</v>
       </c>
       <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
         <v>87</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2631,10 +2623,10 @@
         <v>104</v>
       </c>
       <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
         <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2642,10 +2634,10 @@
         <v>105</v>
       </c>
       <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
         <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2653,7 +2645,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -2664,10 +2656,10 @@
         <v>107</v>
       </c>
       <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
         <v>94</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2675,7 +2667,7 @@
         <v>108</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -2686,10 +2678,10 @@
         <v>109</v>
       </c>
       <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
         <v>97</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2697,10 +2689,10 @@
         <v>110</v>
       </c>
       <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
         <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2708,10 +2700,10 @@
         <v>111</v>
       </c>
       <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
         <v>101</v>
-      </c>
-      <c r="C34" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2719,10 +2711,10 @@
         <v>112</v>
       </c>
       <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
         <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2730,10 +2722,10 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2741,10 +2733,10 @@
         <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2752,10 +2744,10 @@
         <v>115</v>
       </c>
       <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
         <v>108</v>
-      </c>
-      <c r="C38" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2763,10 +2755,10 @@
         <v>116</v>
       </c>
       <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
         <v>110</v>
-      </c>
-      <c r="C39" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2774,10 +2766,10 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
         <v>112</v>
-      </c>
-      <c r="C40" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2785,10 +2777,10 @@
         <v>118</v>
       </c>
       <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
         <v>114</v>
-      </c>
-      <c r="C41" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2796,10 +2788,10 @@
         <v>201</v>
       </c>
       <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" t="s">
         <v>116</v>
-      </c>
-      <c r="C42" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2807,10 +2799,10 @@
         <v>202</v>
       </c>
       <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
         <v>118</v>
-      </c>
-      <c r="C43" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2818,10 +2810,10 @@
         <v>203</v>
       </c>
       <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
         <v>120</v>
-      </c>
-      <c r="C44" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2829,10 +2821,10 @@
         <v>204</v>
       </c>
       <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
         <v>122</v>
-      </c>
-      <c r="C45" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2840,10 +2832,10 @@
         <v>205</v>
       </c>
       <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
         <v>124</v>
-      </c>
-      <c r="C46" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\unity\Assets\Resources\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E3FE3-17A1-45E7-9A3A-EE378B85023E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7850"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
     <sheet name="TextData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="125">
   <si>
     <t>Id</t>
   </si>
@@ -395,14 +412,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,151 +422,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,198 +438,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -763,320 +451,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
-    <cellStyle name="メモ" xfId="8" builtinId="10"/>
-    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1332,32 +733,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="31.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1367,11 +768,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1388,7 +789,7 @@
         <v>""</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11</v>
       </c>
@@ -1409,7 +810,7 @@
         <v>神化</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>21</v>
       </c>
@@ -1420,7 +821,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1430,7 +831,7 @@
         <v>鈍足</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>22</v>
       </c>
@@ -1451,7 +852,7 @@
         <v>スタン</v>
       </c>
     </row>
-    <row r="6" ht="12" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>23</v>
       </c>
@@ -1472,7 +873,7 @@
         <v>火傷</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>24</v>
       </c>
@@ -1493,7 +894,7 @@
         <v>暗闇</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>25</v>
       </c>
@@ -1514,7 +915,7 @@
         <v>即死</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>26</v>
       </c>
@@ -1525,7 +926,7 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -1535,7 +936,7 @@
         <v>凍結</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>31</v>
       </c>
@@ -1556,7 +957,7 @@
         <v>状態異常無効</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1577,7 +978,7 @@
         <v>対象範囲延長</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>41</v>
       </c>
@@ -1598,7 +999,7 @@
         <v>最大Hpアップ</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>42</v>
       </c>
@@ -1619,7 +1020,7 @@
         <v>最大Mpアップ</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>43</v>
       </c>
@@ -1640,7 +1041,7 @@
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>44</v>
       </c>
@@ -1661,7 +1062,7 @@
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>45</v>
       </c>
@@ -1682,7 +1083,7 @@
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>46</v>
       </c>
@@ -1703,7 +1104,7 @@
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>47</v>
       </c>
@@ -1724,7 +1125,7 @@
         <v>クリティカル発生率アップ</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>51</v>
       </c>
@@ -1745,7 +1146,7 @@
         <v>命中アップ</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>52</v>
       </c>
@@ -1766,7 +1167,7 @@
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>53</v>
       </c>
@@ -1787,7 +1188,7 @@
         <v>アクセル</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>61</v>
       </c>
@@ -1808,7 +1209,7 @@
         <v>狙われ率アップ</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>62</v>
       </c>
@@ -1829,7 +1230,7 @@
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>101</v>
       </c>
@@ -1850,7 +1251,7 @@
         <v>拘束</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>102</v>
       </c>
@@ -1871,7 +1272,7 @@
         <v>拘束ダメージ</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>103</v>
       </c>
@@ -1892,7 +1293,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>104</v>
       </c>
@@ -1913,7 +1314,7 @@
         <v>攻撃無効</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>105</v>
       </c>
@@ -1934,7 +1335,7 @@
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>106</v>
       </c>
@@ -1955,7 +1356,7 @@
         <v>行動後AP設定</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>107</v>
       </c>
@@ -1976,7 +1377,7 @@
         <v>挑発</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>108</v>
       </c>
@@ -1997,7 +1398,7 @@
         <v>バニッシュ</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>109</v>
       </c>
@@ -2018,7 +1419,7 @@
         <v>祝福</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>110</v>
       </c>
@@ -2039,7 +1440,7 @@
         <v>呪い</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>111</v>
       </c>
@@ -2060,7 +1461,7 @@
         <v>ドレイン</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>112</v>
       </c>
@@ -2081,7 +1482,7 @@
         <v>アフターヒール</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>113</v>
       </c>
@@ -2102,7 +1503,7 @@
         <v>CAダメージ</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>114</v>
       </c>
@@ -2123,7 +1524,7 @@
         <v>即死</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>115</v>
       </c>
@@ -2144,7 +1545,7 @@
         <v>CA回復</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>116</v>
       </c>
@@ -2165,7 +1566,7 @@
         <v>同時回復</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>117</v>
       </c>
@@ -2186,7 +1587,7 @@
         <v>アンデッド</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>118</v>
       </c>
@@ -2207,7 +1608,7 @@
         <v>必中</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>201</v>
       </c>
@@ -2228,7 +1629,7 @@
         <v>炎適正</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>202</v>
       </c>
@@ -2249,7 +1650,7 @@
         <v>雷適性</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>203</v>
       </c>
@@ -2270,7 +1671,7 @@
         <v>氷適性</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>204</v>
       </c>
@@ -2291,7 +1692,7 @@
         <v>光適性</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>205</v>
       </c>
@@ -2313,279 +1714,279 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>101</v>
       </c>
@@ -2596,7 +1997,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>102</v>
       </c>
@@ -2607,7 +2008,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>103</v>
       </c>
@@ -2618,7 +2019,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>104</v>
       </c>
@@ -2629,7 +2030,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>105</v>
       </c>
@@ -2640,18 +2041,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>106</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>107</v>
       </c>
@@ -2662,18 +2063,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>108</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>109</v>
       </c>
@@ -2684,7 +2085,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>110</v>
       </c>
@@ -2695,7 +2096,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>111</v>
       </c>
@@ -2706,7 +2107,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>112</v>
       </c>
@@ -2717,7 +2118,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>113</v>
       </c>
@@ -2728,7 +2129,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>114</v>
       </c>
@@ -2739,7 +2140,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>115</v>
       </c>
@@ -2750,7 +2151,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>116</v>
       </c>
@@ -2761,7 +2162,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>117</v>
       </c>
@@ -2772,7 +2173,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>118</v>
       </c>
@@ -2783,7 +2184,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>201</v>
       </c>
@@ -2794,7 +2195,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>202</v>
       </c>
@@ -2805,7 +2206,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>203</v>
       </c>
@@ -2816,7 +2217,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>204</v>
       </c>
@@ -2827,7 +2228,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>205</v>
       </c>
@@ -2839,7 +2240,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -1,38 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\unity\Assets\Resources\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E3FE3-17A1-45E7-9A3A-EE378B85023E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
     <sheet name="TextData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="127">
   <si>
     <t>Id</t>
   </si>
@@ -278,6 +261,12 @@
   </si>
   <si>
     <t>戦闘中狙われにくくなる</t>
+  </si>
+  <si>
+    <t>バフ解除</t>
+  </si>
+  <si>
+    <t>バフを解除する</t>
   </si>
   <si>
     <t>拘束</t>
@@ -412,8 +401,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,14 +417,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,8 +574,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -451,9 +769,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -465,17 +1025,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
+    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
+    <cellStyle name="メモ" xfId="12" builtinId="10"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -733,25 +1337,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="31.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -768,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -789,7 +1393,7 @@
         <v>""</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>11</v>
       </c>
@@ -810,7 +1414,7 @@
         <v>神化</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>21</v>
       </c>
@@ -831,7 +1435,7 @@
         <v>鈍足</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>22</v>
       </c>
@@ -852,7 +1456,7 @@
         <v>スタン</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="12" customHeight="1" spans="1:6">
       <c r="A6">
         <v>23</v>
       </c>
@@ -873,7 +1477,7 @@
         <v>火傷</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>24</v>
       </c>
@@ -894,7 +1498,7 @@
         <v>暗闇</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>25</v>
       </c>
@@ -915,7 +1519,7 @@
         <v>即死</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>26</v>
       </c>
@@ -936,7 +1540,7 @@
         <v>凍結</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>31</v>
       </c>
@@ -957,7 +1561,7 @@
         <v>状態異常無効</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>32</v>
       </c>
@@ -978,7 +1582,7 @@
         <v>対象範囲延長</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>41</v>
       </c>
@@ -999,7 +1603,7 @@
         <v>最大Hpアップ</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>42</v>
       </c>
@@ -1020,7 +1624,7 @@
         <v>最大Mpアップ</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>43</v>
       </c>
@@ -1041,7 +1645,7 @@
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>44</v>
       </c>
@@ -1062,7 +1666,7 @@
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>45</v>
       </c>
@@ -1083,7 +1687,7 @@
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>46</v>
       </c>
@@ -1104,7 +1708,7 @@
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>47</v>
       </c>
@@ -1125,7 +1729,7 @@
         <v>クリティカル発生率アップ</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>51</v>
       </c>
@@ -1146,7 +1750,7 @@
         <v>命中アップ</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>52</v>
       </c>
@@ -1167,7 +1771,7 @@
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>53</v>
       </c>
@@ -1188,7 +1792,7 @@
         <v>アクセル</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>61</v>
       </c>
@@ -1209,7 +1813,7 @@
         <v>狙われ率アップ</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>62</v>
       </c>
@@ -1230,162 +1834,162 @@
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24">
+        <v>71</v>
+      </c>
+      <c r="B24">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="str">
+        <f>TextData!B23</f>
+        <v>狙われ率ダウン</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
         <v>101</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="str">
-        <f>TextData!B24</f>
-        <v>拘束</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>102</v>
-      </c>
-      <c r="B25">
-        <v>102</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F25" t="str">
         <f>TextData!B25</f>
-        <v>拘束ダメージ</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>拘束</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F26" t="str">
         <f>TextData!B26</f>
-        <v>CA</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>拘束ダメージ</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" t="str">
         <f>TextData!B27</f>
-        <v>攻撃無効</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F28" t="str">
         <f>TextData!B28</f>
-        <v>リジェネ</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>攻撃無効</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29">
-        <v>106</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
       </c>
       <c r="F29" t="str">
         <f>TextData!B29</f>
-        <v>行動後AP設定</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>リジェネ</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30">
-        <v>107</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
+        <v>106</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
       </c>
       <c r="F30" t="str">
         <f>TextData!B30</f>
-        <v>挑発</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>行動後AP設定</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31">
-        <v>108</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1395,60 +1999,60 @@
       </c>
       <c r="F31" t="str">
         <f>TextData!B31</f>
-        <v>バニッシュ</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>挑発</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32">
-        <v>109</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
+        <v>108</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
       </c>
       <c r="F32" t="str">
         <f>TextData!B32</f>
-        <v>祝福</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>バニッシュ</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
       </c>
       <c r="F33" t="str">
         <f>TextData!B33</f>
-        <v>呪い</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>祝福</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1458,18 +2062,18 @@
       </c>
       <c r="F34" t="str">
         <f>TextData!B34</f>
-        <v>ドレイン</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>呪い</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1479,18 +2083,18 @@
       </c>
       <c r="F35" t="str">
         <f>TextData!B35</f>
-        <v>アフターヒール</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>ドレイン</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1500,39 +2104,39 @@
       </c>
       <c r="F36" t="str">
         <f>TextData!B36</f>
-        <v>CAダメージ</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>アフターヒール</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
       </c>
       <c r="F37" t="str">
         <f>TextData!B37</f>
-        <v>即死</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>CAダメージ</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1542,15 +2146,15 @@
       </c>
       <c r="F38" t="str">
         <f>TextData!B38</f>
-        <v>CA回復</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>即死</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
         <v>34</v>
@@ -1563,18 +2167,18 @@
       </c>
       <c r="F39" t="str">
         <f>TextData!B39</f>
-        <v>同時回復</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>CA回復</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1584,57 +2188,57 @@
       </c>
       <c r="F40" t="str">
         <f>TextData!B40</f>
-        <v>アンデッド</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>同時回復</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
       </c>
       <c r="F41" t="str">
         <f>TextData!B41</f>
-        <v>必中</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>アンデッド</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B42">
-        <v>201</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
       </c>
       <c r="F42" t="str">
         <f>TextData!B42</f>
-        <v>炎適正</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>必中</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B43">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1647,15 +2251,15 @@
       </c>
       <c r="F43" t="str">
         <f>TextData!B43</f>
-        <v>雷適性</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>炎適正</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B44">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1668,15 +2272,15 @@
       </c>
       <c r="F44" t="str">
         <f>TextData!B44</f>
-        <v>氷適性</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>雷適性</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B45">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1689,15 +2293,15 @@
       </c>
       <c r="F45" t="str">
         <f>TextData!B45</f>
-        <v>光適性</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>氷適性</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B46">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1710,30 +2314,52 @@
       </c>
       <c r="F46" t="str">
         <f>TextData!B46</f>
+        <v>光適性</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>205</v>
+      </c>
+      <c r="B47">
+        <v>205</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="str">
+        <f>TextData!B47</f>
         <v>闇適性</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +2370,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1755,7 +2381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>11</v>
       </c>
@@ -1766,7 +2392,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>21</v>
       </c>
@@ -1777,7 +2403,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>22</v>
       </c>
@@ -1788,7 +2414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>23</v>
       </c>
@@ -1799,7 +2425,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>24</v>
       </c>
@@ -1810,7 +2436,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -1821,7 +2447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>26</v>
       </c>
@@ -1832,7 +2458,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>31</v>
       </c>
@@ -1843,7 +2469,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1854,7 +2480,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>41</v>
       </c>
@@ -1865,7 +2491,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>42</v>
       </c>
@@ -1876,7 +2502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>43</v>
       </c>
@@ -1887,7 +2513,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>44</v>
       </c>
@@ -1898,7 +2524,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>45</v>
       </c>
@@ -1909,7 +2535,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>46</v>
       </c>
@@ -1920,7 +2546,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>47</v>
       </c>
@@ -1931,7 +2557,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>51</v>
       </c>
@@ -1942,7 +2568,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>52</v>
       </c>
@@ -1953,7 +2579,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>53</v>
       </c>
@@ -1964,7 +2590,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>61</v>
       </c>
@@ -1975,7 +2601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>62</v>
       </c>
@@ -1986,9 +2612,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
@@ -1997,9 +2623,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
         <v>84</v>
@@ -2008,9 +2634,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
         <v>86</v>
@@ -2019,9 +2645,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
         <v>88</v>
@@ -2030,9 +2656,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
         <v>90</v>
@@ -2041,53 +2667,53 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
         <v>106</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="B30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
         <v>107</v>
       </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
         <v>108</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>109</v>
-      </c>
-      <c r="B32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>110</v>
       </c>
       <c r="B33" t="s">
         <v>98</v>
@@ -2096,9 +2722,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
         <v>100</v>
@@ -2107,9 +2733,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
         <v>102</v>
@@ -2118,9 +2744,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
         <v>104</v>
@@ -2129,31 +2755,31 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
         <v>114</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>115</v>
-      </c>
-      <c r="B38" t="s">
-        <v>107</v>
       </c>
       <c r="C38" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
         <v>109</v>
@@ -2162,9 +2788,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
         <v>111</v>
@@ -2173,9 +2799,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
         <v>113</v>
@@ -2184,9 +2810,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
         <v>115</v>
@@ -2195,9 +2821,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s">
         <v>117</v>
@@ -2206,9 +2832,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B44" t="s">
         <v>119</v>
@@ -2217,9 +2843,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s">
         <v>121</v>
@@ -2228,9 +2854,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B46" t="s">
         <v>123</v>
@@ -2239,8 +2865,19 @@
         <v>124</v>
       </c>
     </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>205</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="129">
   <si>
     <t>Id</t>
   </si>
@@ -29,7 +29,13 @@
     <t>RemovalTiming</t>
   </si>
   <si>
+    <t>OverWrite</t>
+  </si>
+  <si>
     <t>EffectPath</t>
+  </si>
+  <si>
+    <t>EffectPosition</t>
   </si>
   <si>
     <t>Death</t>
@@ -403,10 +409,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -418,7 +424,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,7 +453,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,17 +514,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,9 +529,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,17 +545,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,60 +566,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -576,7 +582,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,151 +738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,26 +773,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -801,39 +787,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,6 +820,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -875,16 +881,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,127 +899,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1343,19 +1349,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="31.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="31.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="5.72727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1371,8 +1378,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1380,20 +1393,26 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="str">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="str">
         <f>TextData!C2</f>
         <v>""</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>11</v>
       </c>
@@ -1401,20 +1420,26 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="str">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="str">
         <f>TextData!B3</f>
         <v>神化</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>21</v>
       </c>
@@ -1422,20 +1447,26 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="str">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
         <f>TextData!B4</f>
         <v>鈍足</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>22</v>
       </c>
@@ -1443,20 +1474,26 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
         <f>TextData!B5</f>
         <v>スタン</v>
       </c>
     </row>
-    <row r="6" ht="12" customHeight="1" spans="1:6">
+    <row r="6" ht="12" customHeight="1" spans="1:8">
       <c r="A6">
         <v>23</v>
       </c>
@@ -1464,20 +1501,26 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
         <f>TextData!B6</f>
         <v>火傷</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>24</v>
       </c>
@@ -1485,20 +1528,26 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="str">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
         <f>TextData!B7</f>
         <v>暗闇</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>25</v>
       </c>
@@ -1506,20 +1555,26 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="str">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
         <f>TextData!B8</f>
         <v>即死</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>26</v>
       </c>
@@ -1527,20 +1582,26 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="str">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="str">
         <f>TextData!B9</f>
         <v>凍結</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>31</v>
       </c>
@@ -1548,20 +1609,26 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="str">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="str">
         <f>TextData!B10</f>
         <v>状態異常無効</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1569,20 +1636,26 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="str">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
         <f>TextData!B11</f>
         <v>対象範囲延長</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>41</v>
       </c>
@@ -1590,20 +1663,26 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="str">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="str">
         <f>TextData!B12</f>
         <v>最大Hpアップ</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>42</v>
       </c>
@@ -1611,20 +1690,26 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="str">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="str">
         <f>TextData!B13</f>
         <v>最大Mpアップ</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>43</v>
       </c>
@@ -1632,20 +1717,26 @@
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="str">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="str">
         <f>TextData!B14</f>
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>44</v>
       </c>
@@ -1653,20 +1744,26 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="str">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="str">
         <f>TextData!B15</f>
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>45</v>
       </c>
@@ -1674,20 +1771,26 @@
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="str">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="str">
         <f>TextData!B16</f>
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>46</v>
       </c>
@@ -1695,20 +1798,26 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="str">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="str">
         <f>TextData!B17</f>
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>47</v>
       </c>
@@ -1716,20 +1825,26 @@
         <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="str">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="str">
         <f>TextData!B18</f>
         <v>クリティカル発生率アップ</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>51</v>
       </c>
@@ -1737,20 +1852,26 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
         <f>TextData!B19</f>
         <v>命中アップ</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>52</v>
       </c>
@@ -1758,20 +1879,26 @@
         <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="str">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="str">
         <f>TextData!B20</f>
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>53</v>
       </c>
@@ -1779,20 +1906,26 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="str">
         <f>TextData!B21</f>
         <v>アクセル</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>61</v>
       </c>
@@ -1800,20 +1933,26 @@
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="str">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="str">
         <f>TextData!B22</f>
         <v>狙われ率アップ</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>62</v>
       </c>
@@ -1821,20 +1960,26 @@
         <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" t="str">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="str">
         <f>TextData!B23</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>71</v>
       </c>
@@ -1847,15 +1992,21 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" t="str">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="str">
         <f>TextData!B23</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>101</v>
       </c>
@@ -1863,20 +2014,26 @@
         <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="str">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="str">
         <f>TextData!B25</f>
         <v>拘束</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>102</v>
       </c>
@@ -1884,20 +2041,26 @@
         <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" t="str">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="str">
         <f>TextData!B26</f>
         <v>拘束ダメージ</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>103</v>
       </c>
@@ -1905,20 +2068,26 @@
         <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" t="str">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="str">
         <f>TextData!B27</f>
         <v>CA</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>104</v>
       </c>
@@ -1926,20 +2095,26 @@
         <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" t="str">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="str">
         <f>TextData!B28</f>
         <v>攻撃無効</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>105</v>
       </c>
@@ -1947,20 +2122,26 @@
         <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" t="str">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="str">
         <f>TextData!B29</f>
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>106</v>
       </c>
@@ -1973,15 +2154,21 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" t="str">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="str">
         <f>TextData!B30</f>
         <v>行動後AP設定</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>107</v>
       </c>
@@ -1989,20 +2176,26 @@
         <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" t="str">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="str">
         <f>TextData!B31</f>
         <v>挑発</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>108</v>
       </c>
@@ -2015,15 +2208,21 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" t="str">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="str">
         <f>TextData!B32</f>
         <v>バニッシュ</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>109</v>
       </c>
@@ -2031,20 +2230,26 @@
         <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" t="str">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="str">
         <f>TextData!B33</f>
         <v>祝福</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>110</v>
       </c>
@@ -2052,20 +2257,26 @@
         <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" t="str">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="str">
         <f>TextData!B34</f>
         <v>呪い</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>111</v>
       </c>
@@ -2073,20 +2284,26 @@
         <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" t="str">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="str">
         <f>TextData!B35</f>
         <v>ドレイン</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>112</v>
       </c>
@@ -2094,20 +2311,26 @@
         <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" t="str">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="str">
         <f>TextData!B36</f>
         <v>アフターヒール</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>113</v>
       </c>
@@ -2115,20 +2338,26 @@
         <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" t="str">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="str">
         <f>TextData!B37</f>
         <v>CAダメージ</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>114</v>
       </c>
@@ -2136,20 +2365,26 @@
         <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="str">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="str">
         <f>TextData!B38</f>
         <v>即死</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>115</v>
       </c>
@@ -2157,20 +2392,26 @@
         <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" t="str">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="str">
         <f>TextData!B39</f>
         <v>CA回復</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>116</v>
       </c>
@@ -2178,20 +2419,26 @@
         <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" t="str">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="str">
         <f>TextData!B40</f>
         <v>同時回復</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>117</v>
       </c>
@@ -2199,20 +2446,26 @@
         <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" t="str">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="str">
         <f>TextData!B41</f>
         <v>アンデッド</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>118</v>
       </c>
@@ -2220,20 +2473,26 @@
         <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" t="str">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="str">
         <f>TextData!B42</f>
         <v>必中</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>201</v>
       </c>
@@ -2246,15 +2505,21 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" t="str">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="str">
         <f>TextData!B43</f>
         <v>炎適正</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>202</v>
       </c>
@@ -2267,15 +2532,21 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" t="str">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="str">
         <f>TextData!B44</f>
         <v>雷適性</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>203</v>
       </c>
@@ -2288,15 +2559,21 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" t="str">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="str">
         <f>TextData!B45</f>
         <v>氷適性</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>204</v>
       </c>
@@ -2309,15 +2586,21 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" t="str">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="str">
         <f>TextData!B46</f>
         <v>光適性</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>205</v>
       </c>
@@ -2330,10 +2613,16 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" t="str">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="str">
         <f>TextData!B47</f>
         <v>闇適性</v>
       </c>
@@ -2350,7 +2639,7 @@
   <sheetPr/>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -2364,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2375,10 +2664,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2386,10 +2675,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2397,10 +2686,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2408,10 +2697,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2419,10 +2708,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2430,10 +2719,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2441,10 +2730,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2452,10 +2741,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2463,10 +2752,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2474,10 +2763,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2485,10 +2774,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2496,10 +2785,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2507,10 +2796,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2518,10 +2807,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2529,10 +2818,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2540,10 +2829,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2551,10 +2840,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2562,10 +2851,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2573,10 +2862,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2584,10 +2873,10 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2595,10 +2884,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2606,10 +2895,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2617,10 +2906,10 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2628,10 +2917,10 @@
         <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2639,10 +2928,10 @@
         <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2650,10 +2939,10 @@
         <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2661,10 +2950,10 @@
         <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2672,10 +2961,10 @@
         <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2683,10 +2972,10 @@
         <v>106</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2694,10 +2983,10 @@
         <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2705,10 +2994,10 @@
         <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2716,10 +3005,10 @@
         <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2727,10 +3016,10 @@
         <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2738,10 +3027,10 @@
         <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2749,10 +3038,10 @@
         <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2760,10 +3049,10 @@
         <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2771,10 +3060,10 @@
         <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2782,10 +3071,10 @@
         <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2793,10 +3082,10 @@
         <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2804,10 +3093,10 @@
         <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2815,10 +3104,10 @@
         <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2826,10 +3115,10 @@
         <v>201</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2837,10 +3126,10 @@
         <v>202</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2848,10 +3137,10 @@
         <v>203</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2859,10 +3148,10 @@
         <v>204</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2870,10 +3159,10 @@
         <v>205</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -409,15 +409,67 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -438,6 +490,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -445,22 +527,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,32 +543,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,58 +560,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -582,6 +582,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -594,7 +636,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,25 +678,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,55 +738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,61 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,6 +773,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -787,6 +796,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,6 +824,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -817,6 +844,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,44 +873,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -881,16 +881,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,124 +899,124 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1351,8 +1351,8 @@
   <sheetPr/>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -2640,7 +2640,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="131">
   <si>
     <t>Id</t>
   </si>
@@ -188,7 +188,7 @@
     <t>状態異常無効</t>
   </si>
   <si>
-    <t>鈍足・スタン・火傷・暗闇にかからなくなる</t>
+    <t>鈍足・スタン・火傷・暗闇無効</t>
   </si>
   <si>
     <t>対象範囲延長</t>
@@ -200,55 +200,55 @@
     <t>最大Hpアップ</t>
   </si>
   <si>
-    <t>戦闘中最大Hpがアップ</t>
+    <t>MaxHp\dアップ</t>
   </si>
   <si>
     <t>最大Mpアップ</t>
   </si>
   <si>
-    <t>戦闘中最大Mpがアップ</t>
+    <t>MaxMp\dアップ</t>
   </si>
   <si>
     <t>攻撃アップ</t>
   </si>
   <si>
-    <t>戦闘中攻撃がアップ</t>
+    <t>ATK\dアップ</t>
   </si>
   <si>
     <t>防御アップ</t>
   </si>
   <si>
-    <t>戦闘中防御がアップ</t>
+    <t>DEF\dアップ</t>
   </si>
   <si>
     <t>速度アップ</t>
   </si>
   <si>
-    <t>戦闘中速度がアップ</t>
+    <t>SPD\dアップ</t>
   </si>
   <si>
     <t>ダメージ威力アップ</t>
   </si>
   <si>
-    <t>戦闘中攻撃魔法がアップ</t>
-  </si>
-  <si>
-    <t>クリティカル発生率アップ</t>
-  </si>
-  <si>
-    <t>戦闘中クリティカル発生率がアップ</t>
+    <t>攻撃魔法の威力が\d%アップ</t>
+  </si>
+  <si>
+    <t>致命攻撃発生率アップ</t>
+  </si>
+  <si>
+    <t>致命攻撃発生率\d%アップ</t>
   </si>
   <si>
     <t>命中アップ</t>
   </si>
   <si>
-    <t>戦闘中命中率がアップ</t>
+    <t>命中率\d%アップ</t>
   </si>
   <si>
     <t>回避アップ</t>
   </si>
   <si>
-    <t>戦闘中回避率がアップ</t>
+    <t>回避率\d%アップ</t>
   </si>
   <si>
     <t>アクセル</t>
@@ -275,6 +275,12 @@
     <t>バフを解除する</t>
   </si>
   <si>
+    <t>防御ダウン</t>
+  </si>
+  <si>
+    <t>DEF\dダウン</t>
+  </si>
+  <si>
     <t>拘束</t>
   </si>
   <si>
@@ -284,13 +290,13 @@
     <t>拘束ダメージ</t>
   </si>
   <si>
-    <t>拘束対象への付与ダメージをアップ</t>
+    <t>拘束対象への付与ダメージ\dアップ</t>
   </si>
   <si>
     <t>CA</t>
   </si>
   <si>
-    <t>静止状態になり攻撃を受けるとダメージを反撃</t>
+    <t>静止状態になり攻撃を受けると反撃ダメージ</t>
   </si>
   <si>
     <t>攻撃無効</t>
@@ -302,7 +308,7 @@
     <t>リジェネ</t>
   </si>
   <si>
-    <t>行動後Hpを回復</t>
+    <t>行動後Hp\d回復</t>
   </si>
   <si>
     <t>行動後AP設定</t>
@@ -332,7 +338,7 @@
     <t>ドレイン</t>
   </si>
   <si>
-    <t>攻撃ダメージの一部を自身のHpに変換する</t>
+    <t>攻撃ダメージの\d%分Hp回復</t>
   </si>
   <si>
     <t>アフターヒール</t>
@@ -344,7 +350,7 @@
     <t>CAダメージ</t>
   </si>
   <si>
-    <t>CAの反撃ダメージをアップ</t>
+    <t>CAの反撃ダメージ\dアップ</t>
   </si>
   <si>
     <t>攻撃を当てると一定確率で即死を付与</t>
@@ -365,7 +371,7 @@
     <t>アンデッド</t>
   </si>
   <si>
-    <t>１度だけ戦闘不能から復活し行動後Hpを回復しつづける</t>
+    <t>1度だけ戦闘不能から復活し行動後Hpを\d回復</t>
   </si>
   <si>
     <t>必中</t>
@@ -409,10 +415,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -420,6 +426,13 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,23 +451,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,16 +466,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,31 +482,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,7 +498,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,6 +513,22 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -553,15 +545,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,7 +588,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +648,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,163 +762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,30 +832,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -873,6 +855,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -881,145 +887,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1349,10 +1355,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1841,7 +1847,7 @@
       </c>
       <c r="H18" t="str">
         <f>TextData!B18</f>
-        <v>クリティカル発生率アップ</v>
+        <v>致命攻撃発生率アップ</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2008,154 +2014,154 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="str">
         <f>TextData!B25</f>
-        <v>拘束</v>
+        <v>防御ダウン</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="str">
         <f>TextData!B26</f>
-        <v>拘束ダメージ</v>
+        <v>拘束</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="str">
         <f>TextData!B27</f>
-        <v>CA</v>
+        <v>拘束ダメージ</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="str">
         <f>TextData!B28</f>
-        <v>攻撃無効</v>
+        <v>CA</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="str">
         <f>TextData!B29</f>
-        <v>リジェネ</v>
+        <v>攻撃無効</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30">
-        <v>106</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -2165,21 +2171,21 @@
       </c>
       <c r="H30" t="str">
         <f>TextData!B30</f>
-        <v>行動後AP設定</v>
+        <v>リジェネ</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31">
-        <v>107</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
+        <v>106</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2192,18 +2198,18 @@
       </c>
       <c r="H31" t="str">
         <f>TextData!B31</f>
-        <v>挑発</v>
+        <v>行動後AP設定</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32">
-        <v>108</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2219,24 +2225,24 @@
       </c>
       <c r="H32" t="str">
         <f>TextData!B32</f>
-        <v>バニッシュ</v>
+        <v>挑発</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33">
-        <v>109</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
+        <v>108</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -2246,21 +2252,21 @@
       </c>
       <c r="H33" t="str">
         <f>TextData!B33</f>
-        <v>祝福</v>
+        <v>バニッシュ</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2273,18 +2279,18 @@
       </c>
       <c r="H34" t="str">
         <f>TextData!B34</f>
-        <v>呪い</v>
+        <v>祝福</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2300,18 +2306,18 @@
       </c>
       <c r="H35" t="str">
         <f>TextData!B35</f>
-        <v>ドレイン</v>
+        <v>呪い</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2327,18 +2333,18 @@
       </c>
       <c r="H36" t="str">
         <f>TextData!B36</f>
-        <v>アフターヒール</v>
+        <v>ドレイン</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2354,24 +2360,24 @@
       </c>
       <c r="H37" t="str">
         <f>TextData!B37</f>
-        <v>CAダメージ</v>
+        <v>アフターヒール</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -2381,24 +2387,24 @@
       </c>
       <c r="H38" t="str">
         <f>TextData!B38</f>
-        <v>即死</v>
+        <v>CAダメージ</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
@@ -2408,15 +2414,15 @@
       </c>
       <c r="H39" t="str">
         <f>TextData!B39</f>
-        <v>CA回復</v>
+        <v>即死</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
         <v>36</v>
@@ -2435,24 +2441,24 @@
       </c>
       <c r="H40" t="str">
         <f>TextData!B40</f>
-        <v>同時回復</v>
+        <v>CA回復</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -2462,21 +2468,21 @@
       </c>
       <c r="H41" t="str">
         <f>TextData!B41</f>
-        <v>アンデッド</v>
+        <v>同時回復</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2489,24 +2495,24 @@
       </c>
       <c r="H42" t="str">
         <f>TextData!B42</f>
-        <v>必中</v>
+        <v>アンデッド</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B43">
-        <v>201</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -2516,15 +2522,15 @@
       </c>
       <c r="H43" t="str">
         <f>TextData!B43</f>
-        <v>炎適正</v>
+        <v>必中</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B44">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2543,15 +2549,15 @@
       </c>
       <c r="H44" t="str">
         <f>TextData!B44</f>
-        <v>雷適性</v>
+        <v>炎適正</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B45">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2570,15 +2576,15 @@
       </c>
       <c r="H45" t="str">
         <f>TextData!B45</f>
-        <v>氷適性</v>
+        <v>雷適性</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B46">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2597,15 +2603,15 @@
       </c>
       <c r="H46" t="str">
         <f>TextData!B46</f>
-        <v>光適性</v>
+        <v>氷適性</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B47">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2624,6 +2630,33 @@
       </c>
       <c r="H47" t="str">
         <f>TextData!B47</f>
+        <v>光適性</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>205</v>
+      </c>
+      <c r="B48">
+        <v>205</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="str">
+        <f>TextData!B48</f>
         <v>闇適性</v>
       </c>
     </row>
@@ -2637,10 +2670,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2914,7 +2947,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
         <v>86</v>
@@ -2925,7 +2958,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
         <v>88</v>
@@ -2936,7 +2969,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
         <v>90</v>
@@ -2947,7 +2980,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
         <v>92</v>
@@ -2958,7 +2991,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
         <v>94</v>
@@ -2968,52 +3001,52 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="A30">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
         <v>106</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
+      <c r="B31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>107</v>
       </c>
-      <c r="B31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
         <v>108</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>109</v>
-      </c>
-      <c r="B33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
         <v>102</v>
@@ -3024,7 +3057,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
         <v>104</v>
@@ -3035,7 +3068,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
         <v>106</v>
@@ -3046,7 +3079,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
         <v>108</v>
@@ -3057,21 +3090,21 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
         <v>112</v>
@@ -3079,7 +3112,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
         <v>113</v>
@@ -3090,7 +3123,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
         <v>115</v>
@@ -3101,7 +3134,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
         <v>117</v>
@@ -3112,7 +3145,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
         <v>119</v>
@@ -3123,7 +3156,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s">
         <v>121</v>
@@ -3134,7 +3167,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s">
         <v>123</v>
@@ -3145,7 +3178,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s">
         <v>125</v>
@@ -3156,13 +3189,24 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s">
         <v>127</v>
       </c>
       <c r="C47" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>205</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -290,7 +290,7 @@
     <t>拘束ダメージ</t>
   </si>
   <si>
-    <t>拘束対象への付与ダメージ\dアップ</t>
+    <t>拘束対象への付与ダメージアップ</t>
   </si>
   <si>
     <t>CA</t>
@@ -415,10 +415,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -429,8 +429,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,6 +483,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -460,15 +498,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,38 +542,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -544,7 +558,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -553,21 +567,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,7 +588,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,31 +720,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,120 +762,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -757,18 +769,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,6 +779,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -806,15 +836,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -832,6 +853,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -840,45 +879,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -887,145 +887,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2672,8 +2672,8 @@
   <sheetPr/>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="137">
   <si>
     <t>Id</t>
   </si>
@@ -378,6 +378,24 @@
   </si>
   <si>
     <t>攻撃が必ずあたるようになる</t>
+  </si>
+  <si>
+    <t>状態異常反射</t>
+  </si>
+  <si>
+    <t>状態異常を反射しダメージを与える</t>
+  </si>
+  <si>
+    <t>プリズム</t>
+  </si>
+  <si>
+    <t>白魔法の攻撃回数を\d回増やす</t>
+  </si>
+  <si>
+    <t>パッシブ無効</t>
+  </si>
+  <si>
+    <t>パッシブ効果が発動しなくなる</t>
   </si>
   <si>
     <t>炎適正</t>
@@ -415,10 +433,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -431,6 +449,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -438,10 +479,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,23 +500,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,29 +548,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -528,7 +555,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,25 +576,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,7 +606,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,61 +684,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,19 +738,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,49 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,19 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,6 +797,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -797,26 +824,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,6 +844,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,28 +877,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,145 +905,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1355,10 +1373,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1618,7 +1636,7 @@
         <v>19</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2527,19 +2545,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="B44">
-        <v>201</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
@@ -2549,21 +2567,21 @@
       </c>
       <c r="H44" t="str">
         <f>TextData!B44</f>
-        <v>炎適正</v>
+        <v>状態異常反射</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="B45">
-        <v>202</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2576,24 +2594,24 @@
       </c>
       <c r="H45" t="str">
         <f>TextData!B45</f>
-        <v>雷適性</v>
+        <v>プリズム</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="B46">
-        <v>203</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
@@ -2603,15 +2621,15 @@
       </c>
       <c r="H46" t="str">
         <f>TextData!B46</f>
-        <v>氷適性</v>
+        <v>パッシブ無効</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B47">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2630,15 +2648,15 @@
       </c>
       <c r="H47" t="str">
         <f>TextData!B47</f>
-        <v>光適性</v>
+        <v>炎適正</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B48">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2657,6 +2675,87 @@
       </c>
       <c r="H48" t="str">
         <f>TextData!B48</f>
+        <v>雷適性</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>203</v>
+      </c>
+      <c r="B49">
+        <v>203</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="str">
+        <f>TextData!B49</f>
+        <v>氷適性</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>204</v>
+      </c>
+      <c r="B50">
+        <v>204</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="str">
+        <f>TextData!B50</f>
+        <v>光適性</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>205</v>
+      </c>
+      <c r="B51">
+        <v>205</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="str">
+        <f>TextData!B51</f>
         <v>闇適性</v>
       </c>
     </row>
@@ -2670,10 +2769,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -3156,7 +3255,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
         <v>121</v>
@@ -3167,7 +3266,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
         <v>123</v>
@@ -3178,7 +3277,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
         <v>125</v>
@@ -3189,7 +3288,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B47" t="s">
         <v>127</v>
@@ -3200,13 +3299,46 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
         <v>129</v>
       </c>
       <c r="C48" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>203</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>204</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>205</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7660" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="144">
   <si>
     <t>Id</t>
   </si>
@@ -38,6 +38,9 @@
     <t>EffectPosition</t>
   </si>
   <si>
+    <t>OverLap</t>
+  </si>
+  <si>
     <t>Death</t>
   </si>
   <si>
@@ -137,6 +140,18 @@
     <t>Slime</t>
   </si>
   <si>
+    <t>HospitalCross</t>
+  </si>
+  <si>
+    <t>Prism</t>
+  </si>
+  <si>
+    <t>Shatter</t>
+  </si>
+  <si>
+    <t>Dew</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
@@ -396,6 +411,12 @@
   </si>
   <si>
     <t>パッシブ効果が発動しなくなる</t>
+  </si>
+  <si>
+    <t>アタックヒール</t>
+  </si>
+  <si>
+    <t>攻撃成功時味方全員のHp\d回復</t>
   </si>
   <si>
     <t>炎適正</t>
@@ -434,9 +455,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -447,62 +468,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,17 +482,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,7 +506,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,6 +519,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -568,8 +550,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -585,7 +606,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,13 +627,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,163 +801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,39 +818,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -848,17 +836,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -870,6 +847,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,6 +885,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -905,145 +926,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1373,20 +1394,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
     <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
     <col min="6" max="6" width="31.1818181818182" customWidth="1"/>
-    <col min="7" max="7" width="5.72727272727273" customWidth="1"/>
+    <col min="7" max="7" width="13.9090909090909" customWidth="1"/>
+    <col min="8" max="8" width="5.72727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1408,8 +1430,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1417,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1426,17 +1451,20 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
         <f>TextData!C2</f>
         <v>""</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>11</v>
       </c>
@@ -1444,7 +1472,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1453,17 +1481,20 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
         <f>TextData!B3</f>
         <v>神化</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>21</v>
       </c>
@@ -1471,7 +1502,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1480,17 +1511,20 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
         <f>TextData!B4</f>
         <v>鈍足</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>22</v>
       </c>
@@ -1498,7 +1532,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1507,17 +1541,20 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
         <f>TextData!B5</f>
         <v>スタン</v>
       </c>
     </row>
-    <row r="6" ht="12" customHeight="1" spans="1:8">
+    <row r="6" ht="12" customHeight="1" spans="1:9">
       <c r="A6">
         <v>23</v>
       </c>
@@ -1525,7 +1562,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1534,17 +1571,20 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
         <f>TextData!B6</f>
         <v>火傷</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>24</v>
       </c>
@@ -1552,7 +1592,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1561,17 +1601,20 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="str">
         <f>TextData!B7</f>
         <v>暗闇</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>25</v>
       </c>
@@ -1579,7 +1622,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1588,17 +1631,20 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
         <f>TextData!B8</f>
         <v>即死</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>26</v>
       </c>
@@ -1606,26 +1652,29 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="str">
         <f>TextData!B9</f>
         <v>凍結</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>31</v>
       </c>
@@ -1633,7 +1682,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1642,17 +1691,20 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
         <f>TextData!B10</f>
         <v>状態異常無効</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1660,7 +1712,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1669,17 +1721,20 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="str">
         <f>TextData!B11</f>
         <v>対象範囲延長</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>41</v>
       </c>
@@ -1687,7 +1742,7 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1696,17 +1751,20 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="str">
         <f>TextData!B12</f>
         <v>最大Hpアップ</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>42</v>
       </c>
@@ -1714,7 +1772,7 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1723,17 +1781,20 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
         <f>TextData!B13</f>
         <v>最大Mpアップ</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>43</v>
       </c>
@@ -1741,7 +1802,7 @@
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1750,17 +1811,20 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
         <f>TextData!B14</f>
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>44</v>
       </c>
@@ -1768,7 +1832,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1777,17 +1841,20 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" t="str">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="str">
         <f>TextData!B15</f>
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>45</v>
       </c>
@@ -1795,7 +1862,7 @@
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1804,17 +1871,20 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
         <f>TextData!B16</f>
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>46</v>
       </c>
@@ -1822,7 +1892,7 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1831,17 +1901,20 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
         <f>TextData!B17</f>
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>47</v>
       </c>
@@ -1849,7 +1922,7 @@
         <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1858,17 +1931,20 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" t="str">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="str">
         <f>TextData!B18</f>
         <v>致命攻撃発生率アップ</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>51</v>
       </c>
@@ -1876,7 +1952,7 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1885,17 +1961,20 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="str">
         <f>TextData!B19</f>
         <v>命中アップ</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>52</v>
       </c>
@@ -1903,7 +1982,7 @@
         <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1912,17 +1991,20 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="str">
         <f>TextData!B20</f>
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>53</v>
       </c>
@@ -1930,7 +2012,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1939,17 +2021,20 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="str">
         <f>TextData!B21</f>
         <v>アクセル</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>61</v>
       </c>
@@ -1957,7 +2042,7 @@
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1966,17 +2051,20 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="str">
         <f>TextData!B22</f>
         <v>狙われ率アップ</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>62</v>
       </c>
@@ -1984,7 +2072,7 @@
         <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1993,17 +2081,20 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="str">
         <f>TextData!B23</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>71</v>
       </c>
@@ -2020,17 +2111,20 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="str">
         <f>TextData!B23</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>84</v>
       </c>
@@ -2038,7 +2132,7 @@
         <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2047,17 +2141,20 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="str">
         <f>TextData!B25</f>
         <v>防御ダウン</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>101</v>
       </c>
@@ -2065,7 +2162,7 @@
         <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -2074,17 +2171,20 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="str">
         <f>TextData!B26</f>
         <v>拘束</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>102</v>
       </c>
@@ -2092,7 +2192,7 @@
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2101,17 +2201,20 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="str">
         <f>TextData!B27</f>
         <v>拘束ダメージ</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>103</v>
       </c>
@@ -2119,7 +2222,7 @@
         <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2128,17 +2231,20 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="str">
         <f>TextData!B28</f>
         <v>CA</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>104</v>
       </c>
@@ -2146,7 +2252,7 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -2155,17 +2261,20 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="str">
         <f>TextData!B29</f>
         <v>攻撃無効</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>105</v>
       </c>
@@ -2173,7 +2282,7 @@
         <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2182,17 +2291,20 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" t="str">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="str">
         <f>TextData!B30</f>
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>106</v>
       </c>
@@ -2209,17 +2321,20 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" t="str">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="str">
         <f>TextData!B31</f>
         <v>行動後AP設定</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>107</v>
       </c>
@@ -2227,7 +2342,7 @@
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2236,17 +2351,20 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="str">
         <f>TextData!B32</f>
         <v>挑発</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>108</v>
       </c>
@@ -2263,17 +2381,20 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33" t="str">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="str">
         <f>TextData!B33</f>
         <v>バニッシュ</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>109</v>
       </c>
@@ -2281,7 +2402,7 @@
         <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2290,17 +2411,20 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" t="str">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="str">
         <f>TextData!B34</f>
         <v>祝福</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>110</v>
       </c>
@@ -2308,26 +2432,29 @@
         <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="str">
         <f>TextData!B35</f>
         <v>呪い</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>111</v>
       </c>
@@ -2335,7 +2462,7 @@
         <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2344,17 +2471,20 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" t="str">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="str">
         <f>TextData!B36</f>
         <v>ドレイン</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>112</v>
       </c>
@@ -2362,7 +2492,7 @@
         <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2371,17 +2501,20 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" t="str">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="str">
         <f>TextData!B37</f>
         <v>アフターヒール</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>113</v>
       </c>
@@ -2389,7 +2522,7 @@
         <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2398,17 +2531,20 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="str">
         <f>TextData!B38</f>
         <v>CAダメージ</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>114</v>
       </c>
@@ -2416,7 +2552,7 @@
         <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2425,17 +2561,20 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="str">
         <f>TextData!B39</f>
         <v>即死</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>115</v>
       </c>
@@ -2443,7 +2582,7 @@
         <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2452,17 +2591,20 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="str">
         <f>TextData!B40</f>
         <v>CA回復</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>116</v>
       </c>
@@ -2470,7 +2612,7 @@
         <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2479,17 +2621,20 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="str">
         <f>TextData!B41</f>
         <v>同時回復</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>117</v>
       </c>
@@ -2497,7 +2642,7 @@
         <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2506,17 +2651,20 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="str">
         <f>TextData!B42</f>
         <v>アンデッド</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>118</v>
       </c>
@@ -2524,7 +2672,7 @@
         <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2533,17 +2681,20 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" t="str">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="str">
         <f>TextData!B43</f>
         <v>必中</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>119</v>
       </c>
@@ -2551,7 +2702,7 @@
         <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2560,17 +2711,20 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" t="str">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="str">
         <f>TextData!B44</f>
         <v>状態異常反射</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>120</v>
       </c>
@@ -2578,7 +2732,7 @@
         <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2587,17 +2741,20 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" t="str">
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="str">
         <f>TextData!B45</f>
         <v>プリズム</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>121</v>
       </c>
@@ -2605,7 +2762,7 @@
         <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -2614,148 +2771,196 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" t="str">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="str">
         <f>TextData!B46</f>
         <v>パッシブ無効</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47">
+        <v>122</v>
+      </c>
+      <c r="B47">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="str">
+        <f>TextData!B47</f>
+        <v>アタックヒール</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>201</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>201</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" t="str">
-        <f>TextData!B47</f>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="str">
+        <f>TextData!B48</f>
         <v>炎適正</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>202</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>202</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="str">
-        <f>TextData!B48</f>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="str">
+        <f>TextData!B49</f>
         <v>雷適性</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
+    <row r="50" spans="1:9">
+      <c r="A50">
         <v>203</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>203</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="str">
-        <f>TextData!B49</f>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="str">
+        <f>TextData!B50</f>
         <v>氷適性</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
+    <row r="51" spans="1:9">
+      <c r="A51">
         <v>204</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>204</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="str">
-        <f>TextData!B50</f>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="str">
+        <f>TextData!B51</f>
         <v>光適性</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51">
+    <row r="52" spans="1:9">
+      <c r="A52">
         <v>205</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>205</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" t="str">
-        <f>TextData!B51</f>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="str">
+        <f>TextData!B52</f>
         <v>闇適性</v>
       </c>
     </row>
@@ -2769,10 +2974,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2785,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2796,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2807,10 +3012,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2818,10 +3023,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2829,10 +3034,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2840,10 +3045,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2851,10 +3056,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2862,10 +3067,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2873,10 +3078,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2884,10 +3089,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2895,10 +3100,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2906,10 +3111,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2917,10 +3122,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2928,10 +3133,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2939,10 +3144,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2950,10 +3155,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2961,10 +3166,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2972,10 +3177,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2983,10 +3188,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2994,10 +3199,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3005,10 +3210,10 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3016,10 +3221,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3027,10 +3232,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3038,10 +3243,10 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3049,10 +3254,10 @@
         <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3060,10 +3265,10 @@
         <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3071,10 +3276,10 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3082,10 +3287,10 @@
         <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3093,10 +3298,10 @@
         <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3104,10 +3309,10 @@
         <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3115,10 +3320,10 @@
         <v>106</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3126,10 +3331,10 @@
         <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3137,10 +3342,10 @@
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3148,10 +3353,10 @@
         <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3159,10 +3364,10 @@
         <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3170,10 +3375,10 @@
         <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3181,10 +3386,10 @@
         <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3192,10 +3397,10 @@
         <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3203,10 +3408,10 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3214,10 +3419,10 @@
         <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3225,10 +3430,10 @@
         <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3236,10 +3441,10 @@
         <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3247,10 +3452,10 @@
         <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3258,10 +3463,10 @@
         <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3269,10 +3474,10 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3280,65 +3485,76 @@
         <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
+        <v>204</v>
+      </c>
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
         <v>205</v>
       </c>
-      <c r="B51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
     <t>攻撃が必ずあたるようになる</t>
   </si>
   <si>
-    <t>状態異常反射</t>
+    <t>状態異常CA</t>
   </si>
   <si>
     <t>状態異常を反射しダメージを与える</t>
@@ -454,9 +454,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -469,14 +469,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,31 +482,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,31 +497,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,6 +527,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -581,16 +567,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -627,13 +627,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,91 +723,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,43 +771,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,19 +807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,6 +818,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -832,6 +843,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,35 +879,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,8 +898,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,16 +926,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,127 +944,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,7 +1396,7 @@
   <sheetPr/>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I44" t="str">
         <f>TextData!B44</f>
-        <v>状態異常反射</v>
+        <v>状態異常CA</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2976,8 +2976,8 @@
   <sheetPr/>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
   <si>
     <t>Id</t>
   </si>
@@ -41,6 +41,12 @@
     <t>OverLap</t>
   </si>
   <si>
+    <t>Removal</t>
+  </si>
+  <si>
+    <t>Abnormal</t>
+  </si>
+  <si>
     <t>Death</t>
   </si>
   <si>
@@ -75,6 +81,9 @@
   </si>
   <si>
     <t>Freeze</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/IcicleLocus</t>
   </si>
   <si>
     <t>Heart</t>
@@ -454,9 +463,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -469,7 +478,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,8 +498,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,115 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +636,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,31 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,49 +774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,25 +798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,55 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,17 +827,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -848,21 +846,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -873,33 +856,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,6 +874,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -926,16 +935,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,127 +953,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1394,10 +1403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1405,10 +1414,10 @@
     <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
     <col min="6" max="6" width="31.1818181818182" customWidth="1"/>
     <col min="7" max="7" width="13.9090909090909" customWidth="1"/>
-    <col min="8" max="8" width="5.72727272727273" customWidth="1"/>
+    <col min="8" max="10" width="5.72727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1433,8 +1442,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1442,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1451,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1459,12 +1474,18 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="str">
         <f>TextData!C2</f>
         <v>""</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>11</v>
       </c>
@@ -1472,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1481,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1489,12 +1510,18 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="str">
         <f>TextData!B3</f>
         <v>神化</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>21</v>
       </c>
@@ -1502,7 +1529,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1511,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1519,12 +1546,18 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="str">
         <f>TextData!B4</f>
         <v>鈍足</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>22</v>
       </c>
@@ -1532,7 +1565,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1541,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1549,12 +1582,18 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="str">
         <f>TextData!B5</f>
         <v>スタン</v>
       </c>
     </row>
-    <row r="6" ht="12" customHeight="1" spans="1:9">
+    <row r="6" ht="12" customHeight="1" spans="1:11">
       <c r="A6">
         <v>23</v>
       </c>
@@ -1562,7 +1601,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1571,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1579,12 +1618,18 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="str">
         <f>TextData!B6</f>
         <v>火傷</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>24</v>
       </c>
@@ -1592,7 +1637,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1601,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1609,12 +1654,18 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="str">
         <f>TextData!B7</f>
         <v>暗闇</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>25</v>
       </c>
@@ -1622,7 +1673,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1631,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1639,12 +1690,18 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="str">
         <f>TextData!B8</f>
         <v>即死</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>26</v>
       </c>
@@ -1652,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1661,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1669,12 +1726,18 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="str">
         <f>TextData!B9</f>
         <v>凍結</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>31</v>
       </c>
@@ -1682,7 +1745,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1691,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1699,12 +1762,18 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="str">
         <f>TextData!B10</f>
         <v>状態異常無効</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1712,7 +1781,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1721,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1729,12 +1798,18 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="str">
         <f>TextData!B11</f>
         <v>対象範囲延長</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>41</v>
       </c>
@@ -1742,7 +1817,7 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1751,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1759,12 +1834,18 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="str">
         <f>TextData!B12</f>
         <v>最大Hpアップ</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>42</v>
       </c>
@@ -1772,7 +1853,7 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1781,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1789,12 +1870,18 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
         <f>TextData!B13</f>
         <v>最大Mpアップ</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>43</v>
       </c>
@@ -1802,7 +1889,7 @@
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1811,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1819,12 +1906,18 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
         <f>TextData!B14</f>
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>44</v>
       </c>
@@ -1832,7 +1925,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1841,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1849,12 +1942,18 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
         <f>TextData!B15</f>
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>45</v>
       </c>
@@ -1862,7 +1961,7 @@
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1871,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1879,12 +1978,18 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
         <f>TextData!B16</f>
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>46</v>
       </c>
@@ -1892,7 +1997,7 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1901,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1909,12 +2014,18 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
         <f>TextData!B17</f>
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>47</v>
       </c>
@@ -1922,7 +2033,7 @@
         <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1931,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1939,12 +2050,18 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
         <f>TextData!B18</f>
         <v>致命攻撃発生率アップ</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>51</v>
       </c>
@@ -1952,7 +2069,7 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1961,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1969,12 +2086,18 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="str">
         <f>TextData!B19</f>
         <v>命中アップ</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>52</v>
       </c>
@@ -1982,7 +2105,7 @@
         <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1991,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1999,12 +2122,18 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="str">
         <f>TextData!B20</f>
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>53</v>
       </c>
@@ -2012,7 +2141,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2021,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2029,12 +2158,18 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="str">
         <f>TextData!B21</f>
         <v>アクセル</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>61</v>
       </c>
@@ -2042,7 +2177,7 @@
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2051,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2059,12 +2194,18 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="str">
         <f>TextData!B22</f>
         <v>狙われ率アップ</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>62</v>
       </c>
@@ -2072,7 +2213,7 @@
         <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2081,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2089,12 +2230,18 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="str">
         <f>TextData!B23</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>71</v>
       </c>
@@ -2111,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2119,12 +2266,18 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="str">
         <f>TextData!B23</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>84</v>
       </c>
@@ -2132,7 +2285,7 @@
         <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2141,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2149,12 +2302,18 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="str">
         <f>TextData!B25</f>
         <v>防御ダウン</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>101</v>
       </c>
@@ -2162,7 +2321,7 @@
         <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -2171,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2179,12 +2338,18 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="str">
         <f>TextData!B26</f>
         <v>拘束</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>102</v>
       </c>
@@ -2192,7 +2357,7 @@
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2201,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2209,12 +2374,18 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="str">
         <f>TextData!B27</f>
         <v>拘束ダメージ</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>103</v>
       </c>
@@ -2222,7 +2393,7 @@
         <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2231,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2239,12 +2410,18 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="str">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="str">
         <f>TextData!B28</f>
         <v>CA</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>104</v>
       </c>
@@ -2252,7 +2429,7 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -2261,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2269,12 +2446,18 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="str">
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="str">
         <f>TextData!B29</f>
         <v>攻撃無効</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>105</v>
       </c>
@@ -2282,7 +2465,7 @@
         <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2291,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2299,12 +2482,18 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="str">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="str">
         <f>TextData!B30</f>
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>106</v>
       </c>
@@ -2321,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2329,12 +2518,18 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="str">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="str">
         <f>TextData!B31</f>
         <v>行動後AP設定</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>107</v>
       </c>
@@ -2342,7 +2537,7 @@
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2351,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2359,12 +2554,18 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="str">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="str">
         <f>TextData!B32</f>
         <v>挑発</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>108</v>
       </c>
@@ -2381,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2389,12 +2590,18 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" t="str">
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="str">
         <f>TextData!B33</f>
         <v>バニッシュ</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>109</v>
       </c>
@@ -2402,7 +2609,7 @@
         <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2411,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2419,12 +2626,18 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="str">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="str">
         <f>TextData!B34</f>
         <v>祝福</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>110</v>
       </c>
@@ -2432,7 +2645,7 @@
         <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -2441,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2449,12 +2662,18 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" t="str">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="str">
         <f>TextData!B35</f>
         <v>呪い</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>111</v>
       </c>
@@ -2462,7 +2681,7 @@
         <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2471,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2479,12 +2698,18 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" t="str">
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="str">
         <f>TextData!B36</f>
         <v>ドレイン</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>112</v>
       </c>
@@ -2492,7 +2717,7 @@
         <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2501,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2509,12 +2734,18 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" t="str">
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="str">
         <f>TextData!B37</f>
         <v>アフターヒール</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>113</v>
       </c>
@@ -2522,7 +2753,7 @@
         <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2531,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2539,12 +2770,18 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="str">
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="str">
         <f>TextData!B38</f>
         <v>CAダメージ</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>114</v>
       </c>
@@ -2552,7 +2789,7 @@
         <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2561,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2569,12 +2806,18 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="str">
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="str">
         <f>TextData!B39</f>
         <v>即死</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>115</v>
       </c>
@@ -2582,7 +2825,7 @@
         <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2591,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2599,12 +2842,18 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" t="str">
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="str">
         <f>TextData!B40</f>
         <v>CA回復</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>116</v>
       </c>
@@ -2612,7 +2861,7 @@
         <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2621,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2629,12 +2878,18 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="str">
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="str">
         <f>TextData!B41</f>
         <v>同時回復</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>117</v>
       </c>
@@ -2642,7 +2897,7 @@
         <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2651,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2659,12 +2914,18 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" t="str">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="str">
         <f>TextData!B42</f>
         <v>アンデッド</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>118</v>
       </c>
@@ -2672,7 +2933,7 @@
         <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2681,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2689,12 +2950,18 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" t="str">
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="str">
         <f>TextData!B43</f>
         <v>必中</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>119</v>
       </c>
@@ -2702,7 +2969,7 @@
         <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2711,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2719,12 +2986,18 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" t="str">
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="str">
         <f>TextData!B44</f>
         <v>状態異常CA</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>120</v>
       </c>
@@ -2732,7 +3005,7 @@
         <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2741,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2749,12 +3022,18 @@
       <c r="H45">
         <v>1</v>
       </c>
-      <c r="I45" t="str">
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="str">
         <f>TextData!B45</f>
         <v>プリズム</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>121</v>
       </c>
@@ -2762,7 +3041,7 @@
         <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -2771,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2779,12 +3058,18 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" t="str">
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="str">
         <f>TextData!B46</f>
         <v>パッシブ無効</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>122</v>
       </c>
@@ -2792,7 +3077,7 @@
         <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2801,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2809,12 +3094,18 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" t="str">
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="str">
         <f>TextData!B47</f>
         <v>アタックヒール</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>201</v>
       </c>
@@ -2831,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2839,12 +3130,18 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" t="str">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="str">
         <f>TextData!B48</f>
         <v>炎適正</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>202</v>
       </c>
@@ -2861,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2869,12 +3166,18 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" t="str">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="str">
         <f>TextData!B49</f>
         <v>雷適性</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>203</v>
       </c>
@@ -2891,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2899,12 +3202,18 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" t="str">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="str">
         <f>TextData!B50</f>
         <v>氷適性</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>204</v>
       </c>
@@ -2921,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2929,12 +3238,18 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="str">
         <f>TextData!B51</f>
         <v>光適性</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>205</v>
       </c>
@@ -2951,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2959,7 +3274,13 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" t="str">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="str">
         <f>TextData!B52</f>
         <v>闇適性</v>
       </c>
@@ -2976,7 +3297,7 @@
   <sheetPr/>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -2990,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3001,10 +3322,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3012,10 +3333,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3023,10 +3344,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3034,10 +3355,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3045,10 +3366,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3056,10 +3377,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3067,10 +3388,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3078,10 +3399,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3089,10 +3410,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3100,10 +3421,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3111,10 +3432,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3122,10 +3443,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3133,10 +3454,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3144,10 +3465,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3155,10 +3476,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3166,10 +3487,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3177,10 +3498,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3188,10 +3509,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3199,10 +3520,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3210,10 +3531,10 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3221,10 +3542,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3232,10 +3553,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3243,10 +3564,10 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3254,10 +3575,10 @@
         <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3265,10 +3586,10 @@
         <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3276,10 +3597,10 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3287,10 +3608,10 @@
         <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3298,10 +3619,10 @@
         <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3309,10 +3630,10 @@
         <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3320,10 +3641,10 @@
         <v>106</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3331,10 +3652,10 @@
         <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3342,10 +3663,10 @@
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3353,10 +3674,10 @@
         <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3364,10 +3685,10 @@
         <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3375,10 +3696,10 @@
         <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3386,10 +3707,10 @@
         <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3397,10 +3718,10 @@
         <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3408,10 +3729,10 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3419,10 +3740,10 @@
         <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3430,10 +3751,10 @@
         <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3441,10 +3762,10 @@
         <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3452,10 +3773,10 @@
         <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3463,10 +3784,10 @@
         <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3474,10 +3795,10 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3485,10 +3806,10 @@
         <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3496,10 +3817,10 @@
         <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3507,10 +3828,10 @@
         <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3518,10 +3839,10 @@
         <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3529,10 +3850,10 @@
         <v>203</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3540,10 +3861,10 @@
         <v>204</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3551,10 +3872,10 @@
         <v>205</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/States.xlsx
+++ b/Assets/Resources/Data/States.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="149">
   <si>
     <t>Id</t>
   </si>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>攻撃成功時味方全員のHp\d回復</t>
+  </si>
+  <si>
+    <t>居合</t>
+  </si>
+  <si>
+    <t>単体攻撃対象を回避し反撃する</t>
   </si>
   <si>
     <t>炎適正</t>
@@ -463,9 +469,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -485,7 +491,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,17 +504,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,14 +513,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,29 +542,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -575,16 +575,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,15 +606,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,7 +621,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,25 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +672,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,133 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,6 +851,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -856,6 +880,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,48 +925,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -935,145 +941,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1403,10 +1409,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3107,19 +3113,19 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="B48">
-        <v>201</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
@@ -3131,22 +3137,22 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="str">
         <f>TextData!B48</f>
-        <v>炎適正</v>
+        <v>居合</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B49">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3174,15 +3180,15 @@
       </c>
       <c r="K49" t="str">
         <f>TextData!B49</f>
-        <v>雷適性</v>
+        <v>炎適正</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B50">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3210,15 +3216,15 @@
       </c>
       <c r="K50" t="str">
         <f>TextData!B50</f>
-        <v>氷適性</v>
+        <v>雷適性</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B51">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3246,15 +3252,15 @@
       </c>
       <c r="K51" t="str">
         <f>TextData!B51</f>
-        <v>光適性</v>
+        <v>氷適性</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B52">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3282,6 +3288,42 @@
       </c>
       <c r="K52" t="str">
         <f>TextData!B52</f>
+        <v>光適性</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>205</v>
+      </c>
+      <c r="B53">
+        <v>205</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="str">
+        <f>TextData!B53</f>
         <v>闇適性</v>
       </c>
     </row>
@@ -3295,10 +3337,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -3825,7 +3867,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
         <v>137</v>
@@ -3836,7 +3878,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B49" t="s">
         <v>139</v>
@@ -3847,7 +3889,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
         <v>141</v>
@@ -3858,7 +3900,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s">
         <v>143</v>
@@ -3869,13 +3911,24 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
         <v>145</v>
       </c>
       <c r="C52" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>205</v>
+      </c>
+      <c r="B53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
